--- a/excel/finished/焦化45/CK45-化产-粗苯(二)（日）.xlsx
+++ b/excel/finished/焦化45/CK45-化产-粗苯(二)（日）.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="粗苯(二)" sheetId="1" r:id="rId1"/>
     <sheet name="_cuben_day_hour" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="5" r:id="rId4"/>
+    <sheet name="_dictionary" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t xml:space="preserve">  焦 化 分 厂 4.3m 回 收 作 业 区 粗 苯 操 作 记 录（二）</t>
   </si>
@@ -36,155 +36,37 @@
     <t>SGSSG-BSMCSA33-G010-02A</t>
   </si>
   <si>
-    <t>项 目  时间</t>
+    <t>项 目 
+ 时间</t>
+  </si>
+  <si>
+    <t>再生器液位LIA-4203</t>
+  </si>
+  <si>
+    <t>脱苯塔液位LRCA-4201</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再生器液位（0.5～1.2m）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LIA-4203</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脱苯塔液位（0.8～2.0m）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LRCA-4201</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>管式炉富油出口温度</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> TRC-4202</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>过热蒸汽温度</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>175</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>190</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">℃）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TRC-4202</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过热蒸汽温度（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>380</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>550</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
@@ -192,139 +74,28 @@
     </r>
   </si>
   <si>
+    <t>管式炉辐射段温度TI-4212</t>
+  </si>
+  <si>
+    <t>再生器底部温度TI-4209</t>
+  </si>
+  <si>
+    <t>再生器顶部温度TI-4210</t>
+  </si>
+  <si>
+    <t>再生器顶部压力PI-4206</t>
+  </si>
+  <si>
+    <t>脱苯塔顶温度TRC-4201</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管式炉辐射段温度（550～625℃）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TI-4212</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再生器底部温度（185～215℃）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TI-4209</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再生器顶部温度（170～200℃）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TI-4210</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再生器顶部压力（≤50kPa）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PI-4206</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脱苯塔顶温度（92～96℃）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TRC-4201</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>脱苯塔顶压力</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（≤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>25kPa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
@@ -332,152 +103,33 @@
     </r>
   </si>
   <si>
-    <t>粗苯回流泵压力（0.4～0.6 Mpa）现场表</t>
+    <t>粗苯回流泵压力</t>
+  </si>
+  <si>
+    <t>一段贫油温度TI-4215</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一段贫油温度（32～42℃）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TI-4215</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>二段贫油温度</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> TI-4216</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>半富油温度</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TI-4216</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>半富油</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>温度（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
@@ -485,88 +137,22 @@
     </r>
   </si>
   <si>
+    <t>板式换热器后粗苯温度TI-4217</t>
+  </si>
+  <si>
+    <t>压缩空气干燥站</t>
+  </si>
+  <si>
+    <t>进口总管压力PI-0811</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>板式换热器后粗苯温度（20～25℃）</t>
+      <t>仪表用压力</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TI-4217</t>
-    </r>
-  </si>
-  <si>
-    <t>压缩空气干燥站</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进口总管压力（≤1.0MPa）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PI-0811</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仪表用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压力（≤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.0MPa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
@@ -620,6 +206,63 @@
   </si>
   <si>
     <t>CK45_L1R_CC_PRC0813_Ext_V_1m_avg</t>
+  </si>
+  <si>
+    <t>管控范围</t>
+  </si>
+  <si>
+    <t>0.5～1.2m</t>
+  </si>
+  <si>
+    <t>0.8～2.0m</t>
+  </si>
+  <si>
+    <t>175～190℃</t>
+  </si>
+  <si>
+    <t>380～550℃</t>
+  </si>
+  <si>
+    <t>550～625℃</t>
+  </si>
+  <si>
+    <t>185～215℃</t>
+  </si>
+  <si>
+    <t>170～200℃</t>
+  </si>
+  <si>
+    <t>≤50kPa</t>
+  </si>
+  <si>
+    <t>92～96℃</t>
+  </si>
+  <si>
+    <t>≤25kPa</t>
+  </si>
+  <si>
+    <t>0.4～0.6 Mpa</t>
+  </si>
+  <si>
+    <t>32～42℃</t>
+  </si>
+  <si>
+    <t>25～31℃</t>
+  </si>
+  <si>
+    <t>26～33℃</t>
+  </si>
+  <si>
+    <t>20～25℃</t>
+  </si>
+  <si>
+    <t>≤1.0MPa</t>
+  </si>
+  <si>
+    <t>上限</t>
+  </si>
+  <si>
+    <t>下限</t>
   </si>
   <si>
     <r>
@@ -676,32 +319,8 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夜班</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值班员：</t>
-    </r>
+    <t>夜班
+值班员：</t>
   </si>
   <si>
     <t>白班
@@ -713,6 +332,9 @@
   </si>
   <si>
     <t>CK45_L1R_CC_1m_avg</t>
+  </si>
+  <si>
+    <t>CK45_L1R_CC_TI4105_Ext_V_1m_avg</t>
   </si>
   <si>
     <t>version</t>
@@ -722,13 +344,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,22 +406,34 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,10 +445,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,8 +480,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,37 +527,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -884,60 +534,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,7 +564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,43 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +630,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,79 +708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,12 +738,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1313,21 +937,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1380,19 +989,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1409,6 +1005,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1456,101 +1074,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,24 +1094,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1605,11 +1120,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,25 +1171,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1670,140 +1189,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1828,158 +1347,104 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2034,6 +1499,18 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2068,7 +1545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="990600" y="1203325"/>
-          <a:ext cx="238125" cy="16510"/>
+          <a:ext cx="543560" cy="16510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2436,7 +1913,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:U36"/>
+  <dimension ref="B1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2445,458 +1922,454 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="7" style="6" customWidth="1"/>
-    <col min="3" max="4" width="8.55833333333333" style="6" customWidth="1"/>
-    <col min="5" max="12" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="14" max="19" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="20" max="20" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="21" max="21" width="14.775" style="5" customWidth="1"/>
-    <col min="22" max="257" width="8.66666666666667" style="5"/>
-    <col min="258" max="258" width="7" style="5" customWidth="1"/>
-    <col min="259" max="268" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="269" max="269" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="270" max="275" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="276" max="276" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="277" max="277" width="14.775" style="5" customWidth="1"/>
-    <col min="278" max="513" width="8.66666666666667" style="5"/>
-    <col min="514" max="514" width="7" style="5" customWidth="1"/>
-    <col min="515" max="524" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="525" max="525" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="526" max="531" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="532" max="532" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="533" max="533" width="14.775" style="5" customWidth="1"/>
-    <col min="534" max="769" width="8.66666666666667" style="5"/>
-    <col min="770" max="770" width="7" style="5" customWidth="1"/>
-    <col min="771" max="780" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="781" max="781" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="782" max="787" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="788" max="788" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="789" max="789" width="14.775" style="5" customWidth="1"/>
-    <col min="790" max="1025" width="8.66666666666667" style="5"/>
-    <col min="1026" max="1026" width="7" style="5" customWidth="1"/>
-    <col min="1027" max="1036" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="1037" max="1037" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="1038" max="1043" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="1044" max="1044" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="1045" max="1045" width="14.775" style="5" customWidth="1"/>
-    <col min="1046" max="1281" width="8.66666666666667" style="5"/>
-    <col min="1282" max="1282" width="7" style="5" customWidth="1"/>
-    <col min="1283" max="1292" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="1293" max="1293" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="1294" max="1299" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="1300" max="1300" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="1301" max="1301" width="14.775" style="5" customWidth="1"/>
-    <col min="1302" max="1537" width="8.66666666666667" style="5"/>
-    <col min="1538" max="1538" width="7" style="5" customWidth="1"/>
-    <col min="1539" max="1548" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="1549" max="1549" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="1550" max="1555" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="1556" max="1556" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="1557" max="1557" width="14.775" style="5" customWidth="1"/>
-    <col min="1558" max="1793" width="8.66666666666667" style="5"/>
-    <col min="1794" max="1794" width="7" style="5" customWidth="1"/>
-    <col min="1795" max="1804" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="1805" max="1805" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="1806" max="1811" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="1812" max="1812" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="1813" max="1813" width="14.775" style="5" customWidth="1"/>
-    <col min="1814" max="2049" width="8.66666666666667" style="5"/>
-    <col min="2050" max="2050" width="7" style="5" customWidth="1"/>
-    <col min="2051" max="2060" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="2061" max="2061" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="2062" max="2067" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="2068" max="2068" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="2069" max="2069" width="14.775" style="5" customWidth="1"/>
-    <col min="2070" max="2305" width="8.66666666666667" style="5"/>
-    <col min="2306" max="2306" width="7" style="5" customWidth="1"/>
-    <col min="2307" max="2316" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="2317" max="2317" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="2318" max="2323" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="2324" max="2324" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="2325" max="2325" width="14.775" style="5" customWidth="1"/>
-    <col min="2326" max="2561" width="8.66666666666667" style="5"/>
-    <col min="2562" max="2562" width="7" style="5" customWidth="1"/>
-    <col min="2563" max="2572" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="2573" max="2573" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="2574" max="2579" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="2580" max="2580" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="2581" max="2581" width="14.775" style="5" customWidth="1"/>
-    <col min="2582" max="2817" width="8.66666666666667" style="5"/>
-    <col min="2818" max="2818" width="7" style="5" customWidth="1"/>
-    <col min="2819" max="2828" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="2829" max="2829" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="2830" max="2835" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="2836" max="2836" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="2837" max="2837" width="14.775" style="5" customWidth="1"/>
-    <col min="2838" max="3073" width="8.66666666666667" style="5"/>
-    <col min="3074" max="3074" width="7" style="5" customWidth="1"/>
-    <col min="3075" max="3084" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="3085" max="3085" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="3086" max="3091" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="3092" max="3092" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="3093" max="3093" width="14.775" style="5" customWidth="1"/>
-    <col min="3094" max="3329" width="8.66666666666667" style="5"/>
-    <col min="3330" max="3330" width="7" style="5" customWidth="1"/>
-    <col min="3331" max="3340" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="3341" max="3341" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="3342" max="3347" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="3348" max="3348" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="3349" max="3349" width="14.775" style="5" customWidth="1"/>
-    <col min="3350" max="3585" width="8.66666666666667" style="5"/>
-    <col min="3586" max="3586" width="7" style="5" customWidth="1"/>
-    <col min="3587" max="3596" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="3597" max="3597" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="3598" max="3603" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="3604" max="3604" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="3605" max="3605" width="14.775" style="5" customWidth="1"/>
-    <col min="3606" max="3841" width="8.66666666666667" style="5"/>
-    <col min="3842" max="3842" width="7" style="5" customWidth="1"/>
-    <col min="3843" max="3852" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="3853" max="3853" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="3854" max="3859" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="3860" max="3860" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="3861" max="3861" width="14.775" style="5" customWidth="1"/>
-    <col min="3862" max="4097" width="8.66666666666667" style="5"/>
-    <col min="4098" max="4098" width="7" style="5" customWidth="1"/>
-    <col min="4099" max="4108" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="4109" max="4109" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="4110" max="4115" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="4116" max="4116" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="4117" max="4117" width="14.775" style="5" customWidth="1"/>
-    <col min="4118" max="4353" width="8.66666666666667" style="5"/>
-    <col min="4354" max="4354" width="7" style="5" customWidth="1"/>
-    <col min="4355" max="4364" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="4365" max="4365" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="4366" max="4371" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="4372" max="4372" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="4373" max="4373" width="14.775" style="5" customWidth="1"/>
-    <col min="4374" max="4609" width="8.66666666666667" style="5"/>
-    <col min="4610" max="4610" width="7" style="5" customWidth="1"/>
-    <col min="4611" max="4620" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="4621" max="4621" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="4622" max="4627" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="4628" max="4628" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="4629" max="4629" width="14.775" style="5" customWidth="1"/>
-    <col min="4630" max="4865" width="8.66666666666667" style="5"/>
-    <col min="4866" max="4866" width="7" style="5" customWidth="1"/>
-    <col min="4867" max="4876" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="4877" max="4877" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="4878" max="4883" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="4884" max="4884" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="4885" max="4885" width="14.775" style="5" customWidth="1"/>
-    <col min="4886" max="5121" width="8.66666666666667" style="5"/>
-    <col min="5122" max="5122" width="7" style="5" customWidth="1"/>
-    <col min="5123" max="5132" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="5133" max="5133" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="5134" max="5139" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="5140" max="5140" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="5141" max="5141" width="14.775" style="5" customWidth="1"/>
-    <col min="5142" max="5377" width="8.66666666666667" style="5"/>
-    <col min="5378" max="5378" width="7" style="5" customWidth="1"/>
-    <col min="5379" max="5388" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="5389" max="5389" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="5390" max="5395" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="5396" max="5396" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="5397" max="5397" width="14.775" style="5" customWidth="1"/>
-    <col min="5398" max="5633" width="8.66666666666667" style="5"/>
-    <col min="5634" max="5634" width="7" style="5" customWidth="1"/>
-    <col min="5635" max="5644" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="5645" max="5645" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="5646" max="5651" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="5652" max="5652" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="5653" max="5653" width="14.775" style="5" customWidth="1"/>
-    <col min="5654" max="5889" width="8.66666666666667" style="5"/>
-    <col min="5890" max="5890" width="7" style="5" customWidth="1"/>
-    <col min="5891" max="5900" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="5901" max="5901" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="5902" max="5907" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="5908" max="5908" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="5909" max="5909" width="14.775" style="5" customWidth="1"/>
-    <col min="5910" max="6145" width="8.66666666666667" style="5"/>
-    <col min="6146" max="6146" width="7" style="5" customWidth="1"/>
-    <col min="6147" max="6156" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="6157" max="6157" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="6158" max="6163" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="6164" max="6164" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="6165" max="6165" width="14.775" style="5" customWidth="1"/>
-    <col min="6166" max="6401" width="8.66666666666667" style="5"/>
-    <col min="6402" max="6402" width="7" style="5" customWidth="1"/>
-    <col min="6403" max="6412" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="6413" max="6413" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="6414" max="6419" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="6420" max="6420" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="6421" max="6421" width="14.775" style="5" customWidth="1"/>
-    <col min="6422" max="6657" width="8.66666666666667" style="5"/>
-    <col min="6658" max="6658" width="7" style="5" customWidth="1"/>
-    <col min="6659" max="6668" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="6669" max="6669" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="6670" max="6675" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="6676" max="6676" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="6677" max="6677" width="14.775" style="5" customWidth="1"/>
-    <col min="6678" max="6913" width="8.66666666666667" style="5"/>
-    <col min="6914" max="6914" width="7" style="5" customWidth="1"/>
-    <col min="6915" max="6924" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="6925" max="6925" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="6926" max="6931" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="6932" max="6932" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="6933" max="6933" width="14.775" style="5" customWidth="1"/>
-    <col min="6934" max="7169" width="8.66666666666667" style="5"/>
-    <col min="7170" max="7170" width="7" style="5" customWidth="1"/>
-    <col min="7171" max="7180" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7181" max="7181" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="7182" max="7187" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7188" max="7188" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="7189" max="7189" width="14.775" style="5" customWidth="1"/>
-    <col min="7190" max="7425" width="8.66666666666667" style="5"/>
-    <col min="7426" max="7426" width="7" style="5" customWidth="1"/>
-    <col min="7427" max="7436" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7437" max="7437" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="7438" max="7443" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7444" max="7444" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="7445" max="7445" width="14.775" style="5" customWidth="1"/>
-    <col min="7446" max="7681" width="8.66666666666667" style="5"/>
-    <col min="7682" max="7682" width="7" style="5" customWidth="1"/>
-    <col min="7683" max="7692" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7693" max="7693" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="7694" max="7699" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7700" max="7700" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="7701" max="7701" width="14.775" style="5" customWidth="1"/>
-    <col min="7702" max="7937" width="8.66666666666667" style="5"/>
-    <col min="7938" max="7938" width="7" style="5" customWidth="1"/>
-    <col min="7939" max="7948" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7949" max="7949" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="7950" max="7955" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="7956" max="7956" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="7957" max="7957" width="14.775" style="5" customWidth="1"/>
-    <col min="7958" max="8193" width="8.66666666666667" style="5"/>
-    <col min="8194" max="8194" width="7" style="5" customWidth="1"/>
-    <col min="8195" max="8204" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="8205" max="8205" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="8206" max="8211" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="8212" max="8212" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="8213" max="8213" width="14.775" style="5" customWidth="1"/>
-    <col min="8214" max="8449" width="8.66666666666667" style="5"/>
-    <col min="8450" max="8450" width="7" style="5" customWidth="1"/>
-    <col min="8451" max="8460" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="8461" max="8461" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="8462" max="8467" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="8468" max="8468" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="8469" max="8469" width="14.775" style="5" customWidth="1"/>
-    <col min="8470" max="8705" width="8.66666666666667" style="5"/>
-    <col min="8706" max="8706" width="7" style="5" customWidth="1"/>
-    <col min="8707" max="8716" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="8717" max="8717" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="8718" max="8723" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="8724" max="8724" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="8725" max="8725" width="14.775" style="5" customWidth="1"/>
-    <col min="8726" max="8961" width="8.66666666666667" style="5"/>
-    <col min="8962" max="8962" width="7" style="5" customWidth="1"/>
-    <col min="8963" max="8972" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="8973" max="8973" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="8974" max="8979" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="8980" max="8980" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="8981" max="8981" width="14.775" style="5" customWidth="1"/>
-    <col min="8982" max="9217" width="8.66666666666667" style="5"/>
-    <col min="9218" max="9218" width="7" style="5" customWidth="1"/>
-    <col min="9219" max="9228" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="9229" max="9229" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="9230" max="9235" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="9236" max="9236" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="9237" max="9237" width="14.775" style="5" customWidth="1"/>
-    <col min="9238" max="9473" width="8.66666666666667" style="5"/>
-    <col min="9474" max="9474" width="7" style="5" customWidth="1"/>
-    <col min="9475" max="9484" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="9485" max="9485" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="9486" max="9491" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="9492" max="9492" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="9493" max="9493" width="14.775" style="5" customWidth="1"/>
-    <col min="9494" max="9729" width="8.66666666666667" style="5"/>
-    <col min="9730" max="9730" width="7" style="5" customWidth="1"/>
-    <col min="9731" max="9740" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="9741" max="9741" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="9742" max="9747" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="9748" max="9748" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="9749" max="9749" width="14.775" style="5" customWidth="1"/>
-    <col min="9750" max="9985" width="8.66666666666667" style="5"/>
-    <col min="9986" max="9986" width="7" style="5" customWidth="1"/>
-    <col min="9987" max="9996" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="9997" max="9997" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="9998" max="10003" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="10004" max="10004" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="10005" max="10005" width="14.775" style="5" customWidth="1"/>
-    <col min="10006" max="10241" width="8.66666666666667" style="5"/>
-    <col min="10242" max="10242" width="7" style="5" customWidth="1"/>
-    <col min="10243" max="10252" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="10253" max="10253" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="10254" max="10259" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="10260" max="10260" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="10261" max="10261" width="14.775" style="5" customWidth="1"/>
-    <col min="10262" max="10497" width="8.66666666666667" style="5"/>
-    <col min="10498" max="10498" width="7" style="5" customWidth="1"/>
-    <col min="10499" max="10508" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="10509" max="10509" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="10510" max="10515" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="10516" max="10516" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="10517" max="10517" width="14.775" style="5" customWidth="1"/>
-    <col min="10518" max="10753" width="8.66666666666667" style="5"/>
-    <col min="10754" max="10754" width="7" style="5" customWidth="1"/>
-    <col min="10755" max="10764" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="10765" max="10765" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="10766" max="10771" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="10772" max="10772" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="10773" max="10773" width="14.775" style="5" customWidth="1"/>
-    <col min="10774" max="11009" width="8.66666666666667" style="5"/>
-    <col min="11010" max="11010" width="7" style="5" customWidth="1"/>
-    <col min="11011" max="11020" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="11021" max="11021" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="11022" max="11027" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="11028" max="11028" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="11029" max="11029" width="14.775" style="5" customWidth="1"/>
-    <col min="11030" max="11265" width="8.66666666666667" style="5"/>
-    <col min="11266" max="11266" width="7" style="5" customWidth="1"/>
-    <col min="11267" max="11276" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="11277" max="11277" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="11278" max="11283" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="11284" max="11284" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="11285" max="11285" width="14.775" style="5" customWidth="1"/>
-    <col min="11286" max="11521" width="8.66666666666667" style="5"/>
-    <col min="11522" max="11522" width="7" style="5" customWidth="1"/>
-    <col min="11523" max="11532" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="11533" max="11533" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="11534" max="11539" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="11540" max="11540" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="11541" max="11541" width="14.775" style="5" customWidth="1"/>
-    <col min="11542" max="11777" width="8.66666666666667" style="5"/>
-    <col min="11778" max="11778" width="7" style="5" customWidth="1"/>
-    <col min="11779" max="11788" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="11789" max="11789" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="11790" max="11795" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="11796" max="11796" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="11797" max="11797" width="14.775" style="5" customWidth="1"/>
-    <col min="11798" max="12033" width="8.66666666666667" style="5"/>
-    <col min="12034" max="12034" width="7" style="5" customWidth="1"/>
-    <col min="12035" max="12044" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="12045" max="12045" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="12046" max="12051" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="12052" max="12052" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="12053" max="12053" width="14.775" style="5" customWidth="1"/>
-    <col min="12054" max="12289" width="8.66666666666667" style="5"/>
-    <col min="12290" max="12290" width="7" style="5" customWidth="1"/>
-    <col min="12291" max="12300" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="12301" max="12301" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="12302" max="12307" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="12308" max="12308" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="12309" max="12309" width="14.775" style="5" customWidth="1"/>
-    <col min="12310" max="12545" width="8.66666666666667" style="5"/>
-    <col min="12546" max="12546" width="7" style="5" customWidth="1"/>
-    <col min="12547" max="12556" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="12557" max="12557" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="12558" max="12563" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="12564" max="12564" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="12565" max="12565" width="14.775" style="5" customWidth="1"/>
-    <col min="12566" max="12801" width="8.66666666666667" style="5"/>
-    <col min="12802" max="12802" width="7" style="5" customWidth="1"/>
-    <col min="12803" max="12812" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="12813" max="12813" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="12814" max="12819" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="12820" max="12820" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="12821" max="12821" width="14.775" style="5" customWidth="1"/>
-    <col min="12822" max="13057" width="8.66666666666667" style="5"/>
-    <col min="13058" max="13058" width="7" style="5" customWidth="1"/>
-    <col min="13059" max="13068" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13069" max="13069" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="13070" max="13075" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13076" max="13076" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="13077" max="13077" width="14.775" style="5" customWidth="1"/>
-    <col min="13078" max="13313" width="8.66666666666667" style="5"/>
-    <col min="13314" max="13314" width="7" style="5" customWidth="1"/>
-    <col min="13315" max="13324" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13325" max="13325" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="13326" max="13331" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13332" max="13332" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="13333" max="13333" width="14.775" style="5" customWidth="1"/>
-    <col min="13334" max="13569" width="8.66666666666667" style="5"/>
-    <col min="13570" max="13570" width="7" style="5" customWidth="1"/>
-    <col min="13571" max="13580" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13581" max="13581" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="13582" max="13587" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13588" max="13588" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="13589" max="13589" width="14.775" style="5" customWidth="1"/>
-    <col min="13590" max="13825" width="8.66666666666667" style="5"/>
-    <col min="13826" max="13826" width="7" style="5" customWidth="1"/>
-    <col min="13827" max="13836" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13837" max="13837" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="13838" max="13843" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="13844" max="13844" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="13845" max="13845" width="14.775" style="5" customWidth="1"/>
-    <col min="13846" max="14081" width="8.66666666666667" style="5"/>
-    <col min="14082" max="14082" width="7" style="5" customWidth="1"/>
-    <col min="14083" max="14092" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="14093" max="14093" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="14094" max="14099" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="14100" max="14100" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="14101" max="14101" width="14.775" style="5" customWidth="1"/>
-    <col min="14102" max="14337" width="8.66666666666667" style="5"/>
-    <col min="14338" max="14338" width="7" style="5" customWidth="1"/>
-    <col min="14339" max="14348" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="14349" max="14349" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="14350" max="14355" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="14356" max="14356" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="14357" max="14357" width="14.775" style="5" customWidth="1"/>
-    <col min="14358" max="14593" width="8.66666666666667" style="5"/>
-    <col min="14594" max="14594" width="7" style="5" customWidth="1"/>
-    <col min="14595" max="14604" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="14605" max="14605" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="14606" max="14611" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="14612" max="14612" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="14613" max="14613" width="14.775" style="5" customWidth="1"/>
-    <col min="14614" max="14849" width="8.66666666666667" style="5"/>
-    <col min="14850" max="14850" width="7" style="5" customWidth="1"/>
-    <col min="14851" max="14860" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="14861" max="14861" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="14862" max="14867" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="14868" max="14868" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="14869" max="14869" width="14.775" style="5" customWidth="1"/>
-    <col min="14870" max="15105" width="8.66666666666667" style="5"/>
-    <col min="15106" max="15106" width="7" style="5" customWidth="1"/>
-    <col min="15107" max="15116" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="15117" max="15117" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="15118" max="15123" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="15124" max="15124" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="15125" max="15125" width="14.775" style="5" customWidth="1"/>
-    <col min="15126" max="15361" width="8.66666666666667" style="5"/>
-    <col min="15362" max="15362" width="7" style="5" customWidth="1"/>
-    <col min="15363" max="15372" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="15373" max="15373" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="15374" max="15379" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="15380" max="15380" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="15381" max="15381" width="14.775" style="5" customWidth="1"/>
-    <col min="15382" max="15617" width="8.66666666666667" style="5"/>
-    <col min="15618" max="15618" width="7" style="5" customWidth="1"/>
-    <col min="15619" max="15628" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="15629" max="15629" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="15630" max="15635" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="15636" max="15636" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="15637" max="15637" width="14.775" style="5" customWidth="1"/>
-    <col min="15638" max="15873" width="8.66666666666667" style="5"/>
-    <col min="15874" max="15874" width="7" style="5" customWidth="1"/>
-    <col min="15875" max="15884" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="15885" max="15885" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="15886" max="15891" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="15892" max="15892" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="15893" max="15893" width="14.775" style="5" customWidth="1"/>
-    <col min="15894" max="16129" width="8.66666666666667" style="5"/>
-    <col min="16130" max="16130" width="7" style="5" customWidth="1"/>
-    <col min="16131" max="16140" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="16141" max="16141" width="8.21666666666667" style="5" customWidth="1"/>
-    <col min="16142" max="16147" width="8.55833333333333" style="5" customWidth="1"/>
-    <col min="16148" max="16148" width="15.4416666666667" style="5" customWidth="1"/>
-    <col min="16149" max="16149" width="14.775" style="5" customWidth="1"/>
-    <col min="16150" max="16384" width="8.66666666666667" style="5"/>
+    <col min="2" max="4" width="11.0083333333333" style="6" customWidth="1"/>
+    <col min="5" max="19" width="11.0083333333333" style="5" customWidth="1"/>
+    <col min="20" max="255" width="8.66666666666667" style="5"/>
+    <col min="256" max="256" width="7" style="5" customWidth="1"/>
+    <col min="257" max="266" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="267" max="267" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="268" max="273" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="274" max="274" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="275" max="275" width="14.775" style="5" customWidth="1"/>
+    <col min="276" max="511" width="8.66666666666667" style="5"/>
+    <col min="512" max="512" width="7" style="5" customWidth="1"/>
+    <col min="513" max="522" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="523" max="523" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="524" max="529" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="530" max="530" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="531" max="531" width="14.775" style="5" customWidth="1"/>
+    <col min="532" max="767" width="8.66666666666667" style="5"/>
+    <col min="768" max="768" width="7" style="5" customWidth="1"/>
+    <col min="769" max="778" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="779" max="779" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="780" max="785" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="786" max="786" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="787" max="787" width="14.775" style="5" customWidth="1"/>
+    <col min="788" max="1023" width="8.66666666666667" style="5"/>
+    <col min="1024" max="1024" width="7" style="5" customWidth="1"/>
+    <col min="1025" max="1034" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="1035" max="1035" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="1036" max="1041" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="1042" max="1042" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="1043" max="1043" width="14.775" style="5" customWidth="1"/>
+    <col min="1044" max="1279" width="8.66666666666667" style="5"/>
+    <col min="1280" max="1280" width="7" style="5" customWidth="1"/>
+    <col min="1281" max="1290" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="1291" max="1291" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="1292" max="1297" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="1298" max="1298" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="1299" max="1299" width="14.775" style="5" customWidth="1"/>
+    <col min="1300" max="1535" width="8.66666666666667" style="5"/>
+    <col min="1536" max="1536" width="7" style="5" customWidth="1"/>
+    <col min="1537" max="1546" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="1547" max="1547" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="1548" max="1553" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="1554" max="1554" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="1555" max="1555" width="14.775" style="5" customWidth="1"/>
+    <col min="1556" max="1791" width="8.66666666666667" style="5"/>
+    <col min="1792" max="1792" width="7" style="5" customWidth="1"/>
+    <col min="1793" max="1802" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="1803" max="1803" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="1804" max="1809" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="1810" max="1810" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="1811" max="1811" width="14.775" style="5" customWidth="1"/>
+    <col min="1812" max="2047" width="8.66666666666667" style="5"/>
+    <col min="2048" max="2048" width="7" style="5" customWidth="1"/>
+    <col min="2049" max="2058" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="2059" max="2059" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="2060" max="2065" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="2066" max="2066" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="2067" max="2067" width="14.775" style="5" customWidth="1"/>
+    <col min="2068" max="2303" width="8.66666666666667" style="5"/>
+    <col min="2304" max="2304" width="7" style="5" customWidth="1"/>
+    <col min="2305" max="2314" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="2315" max="2315" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="2316" max="2321" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="2322" max="2322" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="2323" max="2323" width="14.775" style="5" customWidth="1"/>
+    <col min="2324" max="2559" width="8.66666666666667" style="5"/>
+    <col min="2560" max="2560" width="7" style="5" customWidth="1"/>
+    <col min="2561" max="2570" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="2571" max="2571" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="2572" max="2577" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="2578" max="2578" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="2579" max="2579" width="14.775" style="5" customWidth="1"/>
+    <col min="2580" max="2815" width="8.66666666666667" style="5"/>
+    <col min="2816" max="2816" width="7" style="5" customWidth="1"/>
+    <col min="2817" max="2826" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="2827" max="2827" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="2828" max="2833" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="2834" max="2834" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="2835" max="2835" width="14.775" style="5" customWidth="1"/>
+    <col min="2836" max="3071" width="8.66666666666667" style="5"/>
+    <col min="3072" max="3072" width="7" style="5" customWidth="1"/>
+    <col min="3073" max="3082" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="3083" max="3083" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="3084" max="3089" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="3090" max="3090" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="3091" max="3091" width="14.775" style="5" customWidth="1"/>
+    <col min="3092" max="3327" width="8.66666666666667" style="5"/>
+    <col min="3328" max="3328" width="7" style="5" customWidth="1"/>
+    <col min="3329" max="3338" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="3339" max="3339" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="3340" max="3345" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="3346" max="3346" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="3347" max="3347" width="14.775" style="5" customWidth="1"/>
+    <col min="3348" max="3583" width="8.66666666666667" style="5"/>
+    <col min="3584" max="3584" width="7" style="5" customWidth="1"/>
+    <col min="3585" max="3594" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="3595" max="3595" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="3596" max="3601" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="3602" max="3602" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="3603" max="3603" width="14.775" style="5" customWidth="1"/>
+    <col min="3604" max="3839" width="8.66666666666667" style="5"/>
+    <col min="3840" max="3840" width="7" style="5" customWidth="1"/>
+    <col min="3841" max="3850" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="3851" max="3851" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="3852" max="3857" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="3858" max="3858" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="3859" max="3859" width="14.775" style="5" customWidth="1"/>
+    <col min="3860" max="4095" width="8.66666666666667" style="5"/>
+    <col min="4096" max="4096" width="7" style="5" customWidth="1"/>
+    <col min="4097" max="4106" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="4107" max="4107" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="4108" max="4113" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="4114" max="4114" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="4115" max="4115" width="14.775" style="5" customWidth="1"/>
+    <col min="4116" max="4351" width="8.66666666666667" style="5"/>
+    <col min="4352" max="4352" width="7" style="5" customWidth="1"/>
+    <col min="4353" max="4362" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="4363" max="4363" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="4364" max="4369" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="4370" max="4370" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="4371" max="4371" width="14.775" style="5" customWidth="1"/>
+    <col min="4372" max="4607" width="8.66666666666667" style="5"/>
+    <col min="4608" max="4608" width="7" style="5" customWidth="1"/>
+    <col min="4609" max="4618" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="4619" max="4619" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="4620" max="4625" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="4626" max="4626" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="4627" max="4627" width="14.775" style="5" customWidth="1"/>
+    <col min="4628" max="4863" width="8.66666666666667" style="5"/>
+    <col min="4864" max="4864" width="7" style="5" customWidth="1"/>
+    <col min="4865" max="4874" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="4875" max="4875" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="4876" max="4881" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="4882" max="4882" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="4883" max="4883" width="14.775" style="5" customWidth="1"/>
+    <col min="4884" max="5119" width="8.66666666666667" style="5"/>
+    <col min="5120" max="5120" width="7" style="5" customWidth="1"/>
+    <col min="5121" max="5130" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="5131" max="5131" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="5132" max="5137" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="5138" max="5138" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="5139" max="5139" width="14.775" style="5" customWidth="1"/>
+    <col min="5140" max="5375" width="8.66666666666667" style="5"/>
+    <col min="5376" max="5376" width="7" style="5" customWidth="1"/>
+    <col min="5377" max="5386" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="5387" max="5387" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="5388" max="5393" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="5394" max="5394" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="5395" max="5395" width="14.775" style="5" customWidth="1"/>
+    <col min="5396" max="5631" width="8.66666666666667" style="5"/>
+    <col min="5632" max="5632" width="7" style="5" customWidth="1"/>
+    <col min="5633" max="5642" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="5643" max="5643" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="5644" max="5649" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="5650" max="5650" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="5651" max="5651" width="14.775" style="5" customWidth="1"/>
+    <col min="5652" max="5887" width="8.66666666666667" style="5"/>
+    <col min="5888" max="5888" width="7" style="5" customWidth="1"/>
+    <col min="5889" max="5898" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="5899" max="5899" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="5900" max="5905" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="5906" max="5906" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="5907" max="5907" width="14.775" style="5" customWidth="1"/>
+    <col min="5908" max="6143" width="8.66666666666667" style="5"/>
+    <col min="6144" max="6144" width="7" style="5" customWidth="1"/>
+    <col min="6145" max="6154" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="6155" max="6155" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="6156" max="6161" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="6162" max="6162" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="6163" max="6163" width="14.775" style="5" customWidth="1"/>
+    <col min="6164" max="6399" width="8.66666666666667" style="5"/>
+    <col min="6400" max="6400" width="7" style="5" customWidth="1"/>
+    <col min="6401" max="6410" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="6411" max="6411" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="6412" max="6417" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="6418" max="6418" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="6419" max="6419" width="14.775" style="5" customWidth="1"/>
+    <col min="6420" max="6655" width="8.66666666666667" style="5"/>
+    <col min="6656" max="6656" width="7" style="5" customWidth="1"/>
+    <col min="6657" max="6666" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="6667" max="6667" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="6668" max="6673" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="6674" max="6674" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="6675" max="6675" width="14.775" style="5" customWidth="1"/>
+    <col min="6676" max="6911" width="8.66666666666667" style="5"/>
+    <col min="6912" max="6912" width="7" style="5" customWidth="1"/>
+    <col min="6913" max="6922" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="6923" max="6923" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="6924" max="6929" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="6930" max="6930" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="6931" max="6931" width="14.775" style="5" customWidth="1"/>
+    <col min="6932" max="7167" width="8.66666666666667" style="5"/>
+    <col min="7168" max="7168" width="7" style="5" customWidth="1"/>
+    <col min="7169" max="7178" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7179" max="7179" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="7180" max="7185" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7186" max="7186" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="7187" max="7187" width="14.775" style="5" customWidth="1"/>
+    <col min="7188" max="7423" width="8.66666666666667" style="5"/>
+    <col min="7424" max="7424" width="7" style="5" customWidth="1"/>
+    <col min="7425" max="7434" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7435" max="7435" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="7436" max="7441" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7442" max="7442" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="7443" max="7443" width="14.775" style="5" customWidth="1"/>
+    <col min="7444" max="7679" width="8.66666666666667" style="5"/>
+    <col min="7680" max="7680" width="7" style="5" customWidth="1"/>
+    <col min="7681" max="7690" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7691" max="7691" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="7692" max="7697" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7698" max="7698" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="7699" max="7699" width="14.775" style="5" customWidth="1"/>
+    <col min="7700" max="7935" width="8.66666666666667" style="5"/>
+    <col min="7936" max="7936" width="7" style="5" customWidth="1"/>
+    <col min="7937" max="7946" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7947" max="7947" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="7948" max="7953" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="7954" max="7954" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="7955" max="7955" width="14.775" style="5" customWidth="1"/>
+    <col min="7956" max="8191" width="8.66666666666667" style="5"/>
+    <col min="8192" max="8192" width="7" style="5" customWidth="1"/>
+    <col min="8193" max="8202" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="8203" max="8203" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="8204" max="8209" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="8210" max="8210" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="8211" max="8211" width="14.775" style="5" customWidth="1"/>
+    <col min="8212" max="8447" width="8.66666666666667" style="5"/>
+    <col min="8448" max="8448" width="7" style="5" customWidth="1"/>
+    <col min="8449" max="8458" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="8459" max="8459" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="8460" max="8465" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="8466" max="8466" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="8467" max="8467" width="14.775" style="5" customWidth="1"/>
+    <col min="8468" max="8703" width="8.66666666666667" style="5"/>
+    <col min="8704" max="8704" width="7" style="5" customWidth="1"/>
+    <col min="8705" max="8714" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="8715" max="8715" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="8716" max="8721" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="8722" max="8722" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="8723" max="8723" width="14.775" style="5" customWidth="1"/>
+    <col min="8724" max="8959" width="8.66666666666667" style="5"/>
+    <col min="8960" max="8960" width="7" style="5" customWidth="1"/>
+    <col min="8961" max="8970" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="8971" max="8971" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="8972" max="8977" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="8978" max="8978" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="8979" max="8979" width="14.775" style="5" customWidth="1"/>
+    <col min="8980" max="9215" width="8.66666666666667" style="5"/>
+    <col min="9216" max="9216" width="7" style="5" customWidth="1"/>
+    <col min="9217" max="9226" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="9227" max="9227" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="9228" max="9233" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="9234" max="9234" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="9235" max="9235" width="14.775" style="5" customWidth="1"/>
+    <col min="9236" max="9471" width="8.66666666666667" style="5"/>
+    <col min="9472" max="9472" width="7" style="5" customWidth="1"/>
+    <col min="9473" max="9482" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="9483" max="9483" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="9484" max="9489" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="9490" max="9490" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="9491" max="9491" width="14.775" style="5" customWidth="1"/>
+    <col min="9492" max="9727" width="8.66666666666667" style="5"/>
+    <col min="9728" max="9728" width="7" style="5" customWidth="1"/>
+    <col min="9729" max="9738" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="9739" max="9739" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="9740" max="9745" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="9746" max="9746" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="9747" max="9747" width="14.775" style="5" customWidth="1"/>
+    <col min="9748" max="9983" width="8.66666666666667" style="5"/>
+    <col min="9984" max="9984" width="7" style="5" customWidth="1"/>
+    <col min="9985" max="9994" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="9995" max="9995" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="9996" max="10001" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="10002" max="10002" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="10003" max="10003" width="14.775" style="5" customWidth="1"/>
+    <col min="10004" max="10239" width="8.66666666666667" style="5"/>
+    <col min="10240" max="10240" width="7" style="5" customWidth="1"/>
+    <col min="10241" max="10250" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="10251" max="10251" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="10252" max="10257" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="10258" max="10258" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="10259" max="10259" width="14.775" style="5" customWidth="1"/>
+    <col min="10260" max="10495" width="8.66666666666667" style="5"/>
+    <col min="10496" max="10496" width="7" style="5" customWidth="1"/>
+    <col min="10497" max="10506" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="10507" max="10507" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="10508" max="10513" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="10514" max="10514" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="10515" max="10515" width="14.775" style="5" customWidth="1"/>
+    <col min="10516" max="10751" width="8.66666666666667" style="5"/>
+    <col min="10752" max="10752" width="7" style="5" customWidth="1"/>
+    <col min="10753" max="10762" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="10763" max="10763" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="10764" max="10769" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="10770" max="10770" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="10771" max="10771" width="14.775" style="5" customWidth="1"/>
+    <col min="10772" max="11007" width="8.66666666666667" style="5"/>
+    <col min="11008" max="11008" width="7" style="5" customWidth="1"/>
+    <col min="11009" max="11018" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="11019" max="11019" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="11020" max="11025" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="11026" max="11026" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="11027" max="11027" width="14.775" style="5" customWidth="1"/>
+    <col min="11028" max="11263" width="8.66666666666667" style="5"/>
+    <col min="11264" max="11264" width="7" style="5" customWidth="1"/>
+    <col min="11265" max="11274" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="11275" max="11275" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="11276" max="11281" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="11282" max="11282" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="11283" max="11283" width="14.775" style="5" customWidth="1"/>
+    <col min="11284" max="11519" width="8.66666666666667" style="5"/>
+    <col min="11520" max="11520" width="7" style="5" customWidth="1"/>
+    <col min="11521" max="11530" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="11531" max="11531" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="11532" max="11537" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="11538" max="11538" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="11539" max="11539" width="14.775" style="5" customWidth="1"/>
+    <col min="11540" max="11775" width="8.66666666666667" style="5"/>
+    <col min="11776" max="11776" width="7" style="5" customWidth="1"/>
+    <col min="11777" max="11786" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="11787" max="11787" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="11788" max="11793" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="11794" max="11794" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="11795" max="11795" width="14.775" style="5" customWidth="1"/>
+    <col min="11796" max="12031" width="8.66666666666667" style="5"/>
+    <col min="12032" max="12032" width="7" style="5" customWidth="1"/>
+    <col min="12033" max="12042" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="12043" max="12043" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="12044" max="12049" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="12050" max="12050" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="12051" max="12051" width="14.775" style="5" customWidth="1"/>
+    <col min="12052" max="12287" width="8.66666666666667" style="5"/>
+    <col min="12288" max="12288" width="7" style="5" customWidth="1"/>
+    <col min="12289" max="12298" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="12299" max="12299" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="12300" max="12305" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="12306" max="12306" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="12307" max="12307" width="14.775" style="5" customWidth="1"/>
+    <col min="12308" max="12543" width="8.66666666666667" style="5"/>
+    <col min="12544" max="12544" width="7" style="5" customWidth="1"/>
+    <col min="12545" max="12554" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="12555" max="12555" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="12556" max="12561" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="12562" max="12562" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="12563" max="12563" width="14.775" style="5" customWidth="1"/>
+    <col min="12564" max="12799" width="8.66666666666667" style="5"/>
+    <col min="12800" max="12800" width="7" style="5" customWidth="1"/>
+    <col min="12801" max="12810" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="12811" max="12811" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="12812" max="12817" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="12818" max="12818" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="12819" max="12819" width="14.775" style="5" customWidth="1"/>
+    <col min="12820" max="13055" width="8.66666666666667" style="5"/>
+    <col min="13056" max="13056" width="7" style="5" customWidth="1"/>
+    <col min="13057" max="13066" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="13067" max="13067" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="13068" max="13073" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="13074" max="13074" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="13075" max="13075" width="14.775" style="5" customWidth="1"/>
+    <col min="13076" max="13311" width="8.66666666666667" style="5"/>
+    <col min="13312" max="13312" width="7" style="5" customWidth="1"/>
+    <col min="13313" max="13322" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="13323" max="13323" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="13324" max="13329" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="13330" max="13330" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="13331" max="13331" width="14.775" style="5" customWidth="1"/>
+    <col min="13332" max="13567" width="8.66666666666667" style="5"/>
+    <col min="13568" max="13568" width="7" style="5" customWidth="1"/>
+    <col min="13569" max="13578" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="13579" max="13579" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="13580" max="13585" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="13586" max="13586" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="13587" max="13587" width="14.775" style="5" customWidth="1"/>
+    <col min="13588" max="13823" width="8.66666666666667" style="5"/>
+    <col min="13824" max="13824" width="7" style="5" customWidth="1"/>
+    <col min="13825" max="13834" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="13835" max="13835" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="13836" max="13841" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="13842" max="13842" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="13843" max="13843" width="14.775" style="5" customWidth="1"/>
+    <col min="13844" max="14079" width="8.66666666666667" style="5"/>
+    <col min="14080" max="14080" width="7" style="5" customWidth="1"/>
+    <col min="14081" max="14090" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="14091" max="14091" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="14092" max="14097" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="14098" max="14098" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="14099" max="14099" width="14.775" style="5" customWidth="1"/>
+    <col min="14100" max="14335" width="8.66666666666667" style="5"/>
+    <col min="14336" max="14336" width="7" style="5" customWidth="1"/>
+    <col min="14337" max="14346" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="14347" max="14347" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="14348" max="14353" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="14354" max="14354" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="14355" max="14355" width="14.775" style="5" customWidth="1"/>
+    <col min="14356" max="14591" width="8.66666666666667" style="5"/>
+    <col min="14592" max="14592" width="7" style="5" customWidth="1"/>
+    <col min="14593" max="14602" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="14603" max="14603" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="14604" max="14609" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="14610" max="14610" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="14611" max="14611" width="14.775" style="5" customWidth="1"/>
+    <col min="14612" max="14847" width="8.66666666666667" style="5"/>
+    <col min="14848" max="14848" width="7" style="5" customWidth="1"/>
+    <col min="14849" max="14858" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="14859" max="14859" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="14860" max="14865" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="14866" max="14866" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="14867" max="14867" width="14.775" style="5" customWidth="1"/>
+    <col min="14868" max="15103" width="8.66666666666667" style="5"/>
+    <col min="15104" max="15104" width="7" style="5" customWidth="1"/>
+    <col min="15105" max="15114" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="15115" max="15115" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="15116" max="15121" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="15122" max="15122" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="15123" max="15123" width="14.775" style="5" customWidth="1"/>
+    <col min="15124" max="15359" width="8.66666666666667" style="5"/>
+    <col min="15360" max="15360" width="7" style="5" customWidth="1"/>
+    <col min="15361" max="15370" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="15371" max="15371" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="15372" max="15377" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="15378" max="15378" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="15379" max="15379" width="14.775" style="5" customWidth="1"/>
+    <col min="15380" max="15615" width="8.66666666666667" style="5"/>
+    <col min="15616" max="15616" width="7" style="5" customWidth="1"/>
+    <col min="15617" max="15626" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="15627" max="15627" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="15628" max="15633" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="15634" max="15634" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="15635" max="15635" width="14.775" style="5" customWidth="1"/>
+    <col min="15636" max="15871" width="8.66666666666667" style="5"/>
+    <col min="15872" max="15872" width="7" style="5" customWidth="1"/>
+    <col min="15873" max="15882" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="15883" max="15883" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="15884" max="15889" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="15890" max="15890" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="15891" max="15891" width="14.775" style="5" customWidth="1"/>
+    <col min="15892" max="16127" width="8.66666666666667" style="5"/>
+    <col min="16128" max="16128" width="7" style="5" customWidth="1"/>
+    <col min="16129" max="16138" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="16139" max="16139" width="8.21666666666667" style="5" customWidth="1"/>
+    <col min="16140" max="16145" width="8.55833333333333" style="5" customWidth="1"/>
+    <col min="16146" max="16146" width="15.4416666666667" style="5" customWidth="1"/>
+    <col min="16147" max="16147" width="14.775" style="5" customWidth="1"/>
+    <col min="16148" max="16383" width="8.66666666666667" style="5"/>
+    <col min="16384" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.25" customHeight="1" spans="2:21">
+    <row r="1" ht="50.25" customHeight="1" spans="2:19">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2917,10 +2390,8 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="26.25" customHeight="1" spans="2:21">
+    <row r="2" s="4" customFormat="1" ht="26.25" customHeight="1" spans="2:19">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2930,26 +2401,24 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="39" t="str">
+      <c r="I2" s="34" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
     </row>
-    <row r="3" s="5" customFormat="1" ht="18" customHeight="1" spans="2:21">
+    <row r="3" ht="18" customHeight="1" spans="2:19">
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -2983,7 +2452,7 @@
       <c r="L3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -3002,10 +2471,8 @@
         <v>19</v>
       </c>
       <c r="S3" s="12"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
     </row>
-    <row r="4" s="5" customFormat="1" ht="48.75" customHeight="1" spans="2:21">
+    <row r="4" ht="52" customHeight="1" spans="2:19">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3017,7 +2484,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
-      <c r="M4" s="41"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -3028,1914 +2495,2025 @@
       <c r="S4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
     </row>
-    <row r="5" s="5" customFormat="1" ht="48.75" hidden="1" customHeight="1" spans="2:21">
+    <row r="5" ht="48.75" hidden="1" customHeight="1" spans="2:19">
       <c r="B5" s="16"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48"/>
     </row>
-    <row r="6" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B6" s="17">
+    <row r="6" ht="30" customHeight="1" spans="2:19">
+      <c r="B6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="48.75" hidden="1" customHeight="1" spans="2:19">
+      <c r="B7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>190</v>
+      </c>
+      <c r="F7" s="21">
+        <v>550</v>
+      </c>
+      <c r="G7" s="21">
+        <v>625</v>
+      </c>
+      <c r="H7" s="21">
+        <v>215</v>
+      </c>
+      <c r="I7" s="21">
+        <v>200</v>
+      </c>
+      <c r="J7" s="21">
+        <v>50</v>
+      </c>
+      <c r="K7" s="21">
+        <v>96</v>
+      </c>
+      <c r="L7" s="21">
+        <v>25</v>
+      </c>
+      <c r="M7" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="21">
+        <v>42</v>
+      </c>
+      <c r="O7" s="21">
+        <v>31</v>
+      </c>
+      <c r="P7" s="21">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>25</v>
+      </c>
+      <c r="R7" s="21">
+        <v>1</v>
+      </c>
+      <c r="S7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="48.75" hidden="1" customHeight="1" spans="2:19">
+      <c r="B8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="20">
+        <v>175</v>
+      </c>
+      <c r="F8" s="21">
+        <v>380</v>
+      </c>
+      <c r="G8" s="21">
+        <v>550</v>
+      </c>
+      <c r="H8" s="21">
+        <v>185</v>
+      </c>
+      <c r="I8" s="21">
+        <v>170</v>
+      </c>
+      <c r="J8" s="21">
         <v>0</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="K8" s="21">
+        <v>92</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="21">
+        <v>32</v>
+      </c>
+      <c r="O8" s="21">
+        <v>25</v>
+      </c>
+      <c r="P8" s="21">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>20</v>
+      </c>
+      <c r="R8" s="21">
+        <v>0</v>
+      </c>
+      <c r="S8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23" t="str">
         <f>IF(_cuben_day_hour!A2="","",_cuben_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D9" s="23" t="str">
         <f>IF(_cuben_day_hour!B2="","",_cuben_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="E9" s="23" t="str">
         <f>IF(_cuben_day_hour!C2="","",_cuben_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="21" t="str">
+      <c r="F9" s="23" t="str">
         <f>IF(_cuben_day_hour!D2="","",_cuben_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G9" s="23" t="str">
         <f>IF(_cuben_day_hour!E2="","",_cuben_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H9" s="23" t="str">
         <f>IF(_cuben_day_hour!F2="","",_cuben_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="21" t="str">
+      <c r="I9" s="23" t="str">
         <f>IF(_cuben_day_hour!G2="","",_cuben_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="21" t="str">
+      <c r="J9" s="23" t="str">
         <f>IF(_cuben_day_hour!H2="","",_cuben_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="21" t="str">
+      <c r="K9" s="23" t="str">
         <f>IF(_cuben_day_hour!I2="","",_cuben_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L6" s="19" t="str">
+      <c r="L9" s="23" t="str">
         <f>IF(_cuben_day_hour!J2="","",_cuben_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M9" s="23" t="str">
         <f>IF(_cuben_day_hour!K2="","",_cuben_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="21" t="str">
+      <c r="N9" s="23" t="str">
         <f>IF(_cuben_day_hour!L2="","",_cuben_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="21" t="str">
+      <c r="O9" s="23" t="str">
         <f>IF(_cuben_day_hour!M2="","",_cuben_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="21" t="str">
+      <c r="P9" s="23" t="str">
         <f>IF(_cuben_day_hour!N2="","",_cuben_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="21" t="str">
+      <c r="Q9" s="23" t="str">
         <f>IF(_cuben_day_hour!O2="","",_cuben_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="49" t="str">
+      <c r="R9" s="23" t="str">
         <f>IF(_cuben_day_hour!P2="","",_cuben_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="49" t="str">
+      <c r="S9" s="23" t="str">
         <f>IF(_cuben_day_hour!Q2="","",_cuben_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T6" s="50"/>
-      <c r="U6" s="51"/>
     </row>
-    <row r="7" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B7" s="22">
+    <row r="10" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B10" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C7" s="23" t="str">
+      <c r="C10" s="25" t="str">
         <f>IF(_cuben_day_hour!A3="","",_cuben_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D10" s="25" t="str">
         <f>IF(_cuben_day_hour!B3="","",_cuben_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E7" s="25" t="str">
+      <c r="E10" s="25" t="str">
         <f>IF(_cuben_day_hour!C3="","",_cuben_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F7" s="26" t="str">
+      <c r="F10" s="25" t="str">
         <f>IF(_cuben_day_hour!D3="","",_cuben_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G7" s="26" t="str">
+      <c r="G10" s="25" t="str">
         <f>IF(_cuben_day_hour!E3="","",_cuben_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H7" s="26" t="str">
+      <c r="H10" s="25" t="str">
         <f>IF(_cuben_day_hour!F3="","",_cuben_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I10" s="25" t="str">
         <f>IF(_cuben_day_hour!G3="","",_cuben_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="26" t="str">
+      <c r="J10" s="25" t="str">
         <f>IF(_cuben_day_hour!H3="","",_cuben_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K10" s="25" t="str">
         <f>IF(_cuben_day_hour!I3="","",_cuben_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L7" s="26" t="str">
+      <c r="L10" s="25" t="str">
         <f>IF(_cuben_day_hour!J3="","",_cuben_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M7" s="26" t="str">
+      <c r="M10" s="25" t="str">
         <f>IF(_cuben_day_hour!K3="","",_cuben_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N7" s="26" t="str">
+      <c r="N10" s="25" t="str">
         <f>IF(_cuben_day_hour!L3="","",_cuben_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O7" s="26" t="str">
+      <c r="O10" s="25" t="str">
         <f>IF(_cuben_day_hour!M3="","",_cuben_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P7" s="26" t="str">
+      <c r="P10" s="25" t="str">
         <f>IF(_cuben_day_hour!N3="","",_cuben_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q7" s="26" t="str">
+      <c r="Q10" s="25" t="str">
         <f>IF(_cuben_day_hour!O3="","",_cuben_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="26" t="str">
+      <c r="R10" s="25" t="str">
         <f>IF(_cuben_day_hour!P3="","",_cuben_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="26" t="str">
+      <c r="S10" s="25" t="str">
         <f>IF(_cuben_day_hour!Q3="","",_cuben_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T7" s="50"/>
-      <c r="U7" s="51"/>
     </row>
-    <row r="8" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B8" s="22">
+    <row r="11" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B11" s="24">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C8" s="23" t="str">
+      <c r="C11" s="25" t="str">
         <f>IF(_cuben_day_hour!A4="","",_cuben_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D11" s="25" t="str">
         <f>IF(_cuben_day_hour!B4="","",_cuben_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E11" s="25" t="str">
         <f>IF(_cuben_day_hour!C4="","",_cuben_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F8" s="26" t="str">
+      <c r="F11" s="25" t="str">
         <f>IF(_cuben_day_hour!D4="","",_cuben_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G8" s="26" t="str">
+      <c r="G11" s="25" t="str">
         <f>IF(_cuben_day_hour!E4="","",_cuben_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H8" s="26" t="str">
+      <c r="H11" s="25" t="str">
         <f>IF(_cuben_day_hour!F4="","",_cuben_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I11" s="25" t="str">
         <f>IF(_cuben_day_hour!G4="","",_cuben_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J8" s="26" t="str">
+      <c r="J11" s="25" t="str">
         <f>IF(_cuben_day_hour!H4="","",_cuben_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K11" s="25" t="str">
         <f>IF(_cuben_day_hour!I4="","",_cuben_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L8" s="26" t="str">
+      <c r="L11" s="25" t="str">
         <f>IF(_cuben_day_hour!J4="","",_cuben_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M8" s="26" t="str">
+      <c r="M11" s="25" t="str">
         <f>IF(_cuben_day_hour!K4="","",_cuben_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N8" s="26" t="str">
+      <c r="N11" s="25" t="str">
         <f>IF(_cuben_day_hour!L4="","",_cuben_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O8" s="26" t="str">
+      <c r="O11" s="25" t="str">
         <f>IF(_cuben_day_hour!M4="","",_cuben_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P8" s="26" t="str">
+      <c r="P11" s="25" t="str">
         <f>IF(_cuben_day_hour!N4="","",_cuben_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q8" s="26" t="str">
+      <c r="Q11" s="25" t="str">
         <f>IF(_cuben_day_hour!O4="","",_cuben_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R8" s="26" t="str">
+      <c r="R11" s="25" t="str">
         <f>IF(_cuben_day_hour!P4="","",_cuben_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="26" t="str">
+      <c r="S11" s="25" t="str">
         <f>IF(_cuben_day_hour!Q4="","",_cuben_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="52"/>
     </row>
-    <row r="9" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B9" s="22">
+    <row r="12" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B12" s="24">
         <v>0.125</v>
       </c>
-      <c r="C9" s="23" t="str">
+      <c r="C12" s="25" t="str">
         <f>IF(_cuben_day_hour!A5="","",_cuben_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D12" s="25" t="str">
         <f>IF(_cuben_day_hour!B5="","",_cuben_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E12" s="25" t="str">
         <f>IF(_cuben_day_hour!C5="","",_cuben_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="26" t="str">
+      <c r="F12" s="25" t="str">
         <f>IF(_cuben_day_hour!D5="","",_cuben_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G12" s="25" t="str">
         <f>IF(_cuben_day_hour!E5="","",_cuben_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="26" t="str">
+      <c r="H12" s="25" t="str">
         <f>IF(_cuben_day_hour!F5="","",_cuben_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I12" s="25" t="str">
         <f>IF(_cuben_day_hour!G5="","",_cuben_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="26" t="str">
+      <c r="J12" s="25" t="str">
         <f>IF(_cuben_day_hour!H5="","",_cuben_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K12" s="25" t="str">
         <f>IF(_cuben_day_hour!I5="","",_cuben_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L9" s="26" t="str">
+      <c r="L12" s="25" t="str">
         <f>IF(_cuben_day_hour!J5="","",_cuben_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M9" s="26" t="str">
+      <c r="M12" s="25" t="str">
         <f>IF(_cuben_day_hour!K5="","",_cuben_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N9" s="26" t="str">
+      <c r="N12" s="25" t="str">
         <f>IF(_cuben_day_hour!L5="","",_cuben_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O9" s="26" t="str">
+      <c r="O12" s="25" t="str">
         <f>IF(_cuben_day_hour!M5="","",_cuben_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P9" s="26" t="str">
+      <c r="P12" s="25" t="str">
         <f>IF(_cuben_day_hour!N5="","",_cuben_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q9" s="26" t="str">
+      <c r="Q12" s="25" t="str">
         <f>IF(_cuben_day_hour!O5="","",_cuben_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R9" s="26" t="str">
+      <c r="R12" s="25" t="str">
         <f>IF(_cuben_day_hour!P5="","",_cuben_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="26" t="str">
+      <c r="S12" s="25" t="str">
         <f>IF(_cuben_day_hour!Q5="","",_cuben_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T9" s="50"/>
-      <c r="U9" s="52"/>
     </row>
-    <row r="10" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B10" s="22">
+    <row r="13" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B13" s="24">
         <v>0.166666666666667</v>
       </c>
-      <c r="C10" s="23" t="str">
+      <c r="C13" s="25" t="str">
         <f>IF(_cuben_day_hour!A6="","",_cuben_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D10" s="24" t="str">
+      <c r="D13" s="25" t="str">
         <f>IF(_cuben_day_hour!B6="","",_cuben_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E10" s="25" t="str">
+      <c r="E13" s="25" t="str">
         <f>IF(_cuben_day_hour!C6="","",_cuben_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F10" s="26" t="str">
+      <c r="F13" s="25" t="str">
         <f>IF(_cuben_day_hour!D6="","",_cuben_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G10" s="26" t="str">
+      <c r="G13" s="25" t="str">
         <f>IF(_cuben_day_hour!E6="","",_cuben_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H10" s="26" t="str">
+      <c r="H13" s="25" t="str">
         <f>IF(_cuben_day_hour!F6="","",_cuben_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="26" t="str">
+      <c r="I13" s="25" t="str">
         <f>IF(_cuben_day_hour!G6="","",_cuben_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J10" s="26" t="str">
+      <c r="J13" s="25" t="str">
         <f>IF(_cuben_day_hour!H6="","",_cuben_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K13" s="25" t="str">
         <f>IF(_cuben_day_hour!I6="","",_cuben_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L10" s="26" t="str">
+      <c r="L13" s="25" t="str">
         <f>IF(_cuben_day_hour!J6="","",_cuben_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M10" s="26" t="str">
+      <c r="M13" s="25" t="str">
         <f>IF(_cuben_day_hour!K6="","",_cuben_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N10" s="26" t="str">
+      <c r="N13" s="25" t="str">
         <f>IF(_cuben_day_hour!L6="","",_cuben_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O10" s="26" t="str">
+      <c r="O13" s="25" t="str">
         <f>IF(_cuben_day_hour!M6="","",_cuben_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P10" s="26" t="str">
+      <c r="P13" s="25" t="str">
         <f>IF(_cuben_day_hour!N6="","",_cuben_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q10" s="26" t="str">
+      <c r="Q13" s="25" t="str">
         <f>IF(_cuben_day_hour!O6="","",_cuben_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R10" s="26" t="str">
+      <c r="R13" s="25" t="str">
         <f>IF(_cuben_day_hour!P6="","",_cuben_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="26" t="str">
+      <c r="S13" s="25" t="str">
         <f>IF(_cuben_day_hour!Q6="","",_cuben_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T10" s="50"/>
-      <c r="U10" s="52"/>
     </row>
-    <row r="11" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B11" s="22">
+    <row r="14" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B14" s="24">
         <v>0.208333333333333</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C14" s="25" t="str">
         <f>IF(_cuben_day_hour!A7="","",_cuben_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D11" s="24" t="str">
+      <c r="D14" s="25" t="str">
         <f>IF(_cuben_day_hour!B7="","",_cuben_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E11" s="25" t="str">
+      <c r="E14" s="25" t="str">
         <f>IF(_cuben_day_hour!C7="","",_cuben_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F11" s="26" t="str">
+      <c r="F14" s="25" t="str">
         <f>IF(_cuben_day_hour!D7="","",_cuben_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G11" s="26" t="str">
+      <c r="G14" s="25" t="str">
         <f>IF(_cuben_day_hour!E7="","",_cuben_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H11" s="26" t="str">
+      <c r="H14" s="25" t="str">
         <f>IF(_cuben_day_hour!F7="","",_cuben_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="26" t="str">
+      <c r="I14" s="25" t="str">
         <f>IF(_cuben_day_hour!G7="","",_cuben_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J11" s="26" t="str">
+      <c r="J14" s="25" t="str">
         <f>IF(_cuben_day_hour!H7="","",_cuben_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K11" s="26" t="str">
+      <c r="K14" s="25" t="str">
         <f>IF(_cuben_day_hour!I7="","",_cuben_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L11" s="26" t="str">
+      <c r="L14" s="25" t="str">
         <f>IF(_cuben_day_hour!J7="","",_cuben_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M11" s="26" t="str">
+      <c r="M14" s="25" t="str">
         <f>IF(_cuben_day_hour!K7="","",_cuben_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N11" s="26" t="str">
+      <c r="N14" s="25" t="str">
         <f>IF(_cuben_day_hour!L7="","",_cuben_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O11" s="26" t="str">
+      <c r="O14" s="25" t="str">
         <f>IF(_cuben_day_hour!M7="","",_cuben_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P11" s="26" t="str">
+      <c r="P14" s="25" t="str">
         <f>IF(_cuben_day_hour!N7="","",_cuben_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q11" s="26" t="str">
+      <c r="Q14" s="25" t="str">
         <f>IF(_cuben_day_hour!O7="","",_cuben_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R11" s="26" t="str">
+      <c r="R14" s="25" t="str">
         <f>IF(_cuben_day_hour!P7="","",_cuben_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="26" t="str">
+      <c r="S14" s="25" t="str">
         <f>IF(_cuben_day_hour!Q7="","",_cuben_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T11" s="50"/>
-      <c r="U11" s="52"/>
     </row>
-    <row r="12" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B12" s="22">
+    <row r="15" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B15" s="24">
         <v>0.25</v>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C15" s="25" t="str">
         <f>IF(_cuben_day_hour!A8="","",_cuben_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D12" s="24" t="str">
+      <c r="D15" s="25" t="str">
         <f>IF(_cuben_day_hour!B8="","",_cuben_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E12" s="25" t="str">
+      <c r="E15" s="25" t="str">
         <f>IF(_cuben_day_hour!C8="","",_cuben_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F12" s="26" t="str">
+      <c r="F15" s="25" t="str">
         <f>IF(_cuben_day_hour!D8="","",_cuben_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G15" s="25" t="str">
         <f>IF(_cuben_day_hour!E8="","",_cuben_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H12" s="26" t="str">
+      <c r="H15" s="25" t="str">
         <f>IF(_cuben_day_hour!F8="","",_cuben_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="26" t="str">
+      <c r="I15" s="25" t="str">
         <f>IF(_cuben_day_hour!G8="","",_cuben_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J12" s="26" t="str">
+      <c r="J15" s="25" t="str">
         <f>IF(_cuben_day_hour!H8="","",_cuben_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K12" s="26" t="str">
+      <c r="K15" s="25" t="str">
         <f>IF(_cuben_day_hour!I8="","",_cuben_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L12" s="26" t="str">
+      <c r="L15" s="25" t="str">
         <f>IF(_cuben_day_hour!J8="","",_cuben_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M12" s="26" t="str">
+      <c r="M15" s="25" t="str">
         <f>IF(_cuben_day_hour!K8="","",_cuben_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N12" s="26" t="str">
+      <c r="N15" s="25" t="str">
         <f>IF(_cuben_day_hour!L8="","",_cuben_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O12" s="26" t="str">
+      <c r="O15" s="25" t="str">
         <f>IF(_cuben_day_hour!M8="","",_cuben_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P12" s="26" t="str">
+      <c r="P15" s="25" t="str">
         <f>IF(_cuben_day_hour!N8="","",_cuben_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q12" s="26" t="str">
+      <c r="Q15" s="25" t="str">
         <f>IF(_cuben_day_hour!O8="","",_cuben_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R12" s="26" t="str">
+      <c r="R15" s="25" t="str">
         <f>IF(_cuben_day_hour!P8="","",_cuben_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="26" t="str">
+      <c r="S15" s="25" t="str">
         <f>IF(_cuben_day_hour!Q8="","",_cuben_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T12" s="50"/>
-      <c r="U12" s="52"/>
     </row>
-    <row r="13" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B13" s="27">
+    <row r="16" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B16" s="26">
         <v>0.291666666666667</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C16" s="27" t="str">
         <f>IF(_cuben_day_hour!A9="","",_cuben_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D16" s="27" t="str">
         <f>IF(_cuben_day_hour!B9="","",_cuben_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E13" s="30" t="str">
+      <c r="E16" s="27" t="str">
         <f>IF(_cuben_day_hour!C9="","",_cuben_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F13" s="31" t="str">
+      <c r="F16" s="27" t="str">
         <f>IF(_cuben_day_hour!D9="","",_cuben_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G13" s="31" t="str">
+      <c r="G16" s="27" t="str">
         <f>IF(_cuben_day_hour!E9="","",_cuben_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H13" s="31" t="str">
+      <c r="H16" s="27" t="str">
         <f>IF(_cuben_day_hour!F9="","",_cuben_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="31" t="str">
+      <c r="I16" s="27" t="str">
         <f>IF(_cuben_day_hour!G9="","",_cuben_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J13" s="31" t="str">
+      <c r="J16" s="27" t="str">
         <f>IF(_cuben_day_hour!H9="","",_cuben_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K13" s="31" t="str">
+      <c r="K16" s="27" t="str">
         <f>IF(_cuben_day_hour!I9="","",_cuben_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L13" s="31" t="str">
+      <c r="L16" s="27" t="str">
         <f>IF(_cuben_day_hour!J9="","",_cuben_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M13" s="31" t="str">
+      <c r="M16" s="27" t="str">
         <f>IF(_cuben_day_hour!K9="","",_cuben_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N13" s="31" t="str">
+      <c r="N16" s="27" t="str">
         <f>IF(_cuben_day_hour!L9="","",_cuben_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O13" s="31" t="str">
+      <c r="O16" s="27" t="str">
         <f>IF(_cuben_day_hour!M9="","",_cuben_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P13" s="31" t="str">
+      <c r="P16" s="27" t="str">
         <f>IF(_cuben_day_hour!N9="","",_cuben_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q13" s="31" t="str">
+      <c r="Q16" s="27" t="str">
         <f>IF(_cuben_day_hour!O9="","",_cuben_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R13" s="31" t="str">
+      <c r="R16" s="27" t="str">
         <f>IF(_cuben_day_hour!P9="","",_cuben_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="31" t="str">
+      <c r="S16" s="27" t="str">
         <f>IF(_cuben_day_hour!Q9="","",_cuben_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
     </row>
-    <row r="14" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B14" s="17">
+    <row r="17" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B17" s="22">
         <v>0.333333333333334</v>
       </c>
-      <c r="C14" s="18" t="str">
+      <c r="C17" s="23" t="str">
         <f>IF(_cuben_day_hour!A10="","",_cuben_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D14" s="19" t="str">
+      <c r="D17" s="23" t="str">
         <f>IF(_cuben_day_hour!B10="","",_cuben_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E14" s="20" t="str">
+      <c r="E17" s="23" t="str">
         <f>IF(_cuben_day_hour!C10="","",_cuben_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F17" s="23" t="str">
         <f>IF(_cuben_day_hour!D10="","",_cuben_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G17" s="23" t="str">
         <f>IF(_cuben_day_hour!E10="","",_cuben_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H17" s="23" t="str">
         <f>IF(_cuben_day_hour!F10="","",_cuben_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="21" t="str">
+      <c r="I17" s="23" t="str">
         <f>IF(_cuben_day_hour!G10="","",_cuben_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J17" s="23" t="str">
         <f>IF(_cuben_day_hour!H10="","",_cuben_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K14" s="21" t="str">
+      <c r="K17" s="23" t="str">
         <f>IF(_cuben_day_hour!I10="","",_cuben_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L14" s="21" t="str">
+      <c r="L17" s="23" t="str">
         <f>IF(_cuben_day_hour!J10="","",_cuben_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="21" t="str">
+      <c r="M17" s="23" t="str">
         <f>IF(_cuben_day_hour!K10="","",_cuben_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="21" t="str">
+      <c r="N17" s="23" t="str">
         <f>IF(_cuben_day_hour!L10="","",_cuben_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="21" t="str">
+      <c r="O17" s="23" t="str">
         <f>IF(_cuben_day_hour!M10="","",_cuben_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="21" t="str">
+      <c r="P17" s="23" t="str">
         <f>IF(_cuben_day_hour!N10="","",_cuben_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="21" t="str">
+      <c r="Q17" s="23" t="str">
         <f>IF(_cuben_day_hour!O10="","",_cuben_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="21" t="str">
+      <c r="R17" s="23" t="str">
         <f>IF(_cuben_day_hour!P10="","",_cuben_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="21" t="str">
+      <c r="S17" s="23" t="str">
         <f>IF(_cuben_day_hour!Q10="","",_cuben_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
     </row>
-    <row r="15" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B15" s="22">
+    <row r="18" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B18" s="24">
         <v>0.375</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C18" s="25" t="str">
         <f>IF(_cuben_day_hour!A11="","",_cuben_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D15" s="24" t="str">
+      <c r="D18" s="25" t="str">
         <f>IF(_cuben_day_hour!B11="","",_cuben_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E18" s="25" t="str">
         <f>IF(_cuben_day_hour!C11="","",_cuben_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F15" s="26" t="str">
+      <c r="F18" s="25" t="str">
         <f>IF(_cuben_day_hour!D11="","",_cuben_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G18" s="25" t="str">
         <f>IF(_cuben_day_hour!E11="","",_cuben_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H15" s="26" t="str">
+      <c r="H18" s="25" t="str">
         <f>IF(_cuben_day_hour!F11="","",_cuben_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I18" s="25" t="str">
         <f>IF(_cuben_day_hour!G11="","",_cuben_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J15" s="26" t="str">
+      <c r="J18" s="25" t="str">
         <f>IF(_cuben_day_hour!H11="","",_cuben_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K15" s="26" t="str">
+      <c r="K18" s="25" t="str">
         <f>IF(_cuben_day_hour!I11="","",_cuben_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L15" s="26" t="str">
+      <c r="L18" s="25" t="str">
         <f>IF(_cuben_day_hour!J11="","",_cuben_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M15" s="26" t="str">
+      <c r="M18" s="25" t="str">
         <f>IF(_cuben_day_hour!K11="","",_cuben_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N15" s="26" t="str">
+      <c r="N18" s="25" t="str">
         <f>IF(_cuben_day_hour!L11="","",_cuben_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O15" s="26" t="str">
+      <c r="O18" s="25" t="str">
         <f>IF(_cuben_day_hour!M11="","",_cuben_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P15" s="26" t="str">
+      <c r="P18" s="25" t="str">
         <f>IF(_cuben_day_hour!N11="","",_cuben_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q15" s="26" t="str">
+      <c r="Q18" s="25" t="str">
         <f>IF(_cuben_day_hour!O11="","",_cuben_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R15" s="26" t="str">
+      <c r="R18" s="25" t="str">
         <f>IF(_cuben_day_hour!P11="","",_cuben_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="26" t="str">
+      <c r="S18" s="25" t="str">
         <f>IF(_cuben_day_hour!Q11="","",_cuben_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T15" s="50"/>
-      <c r="U15" s="52"/>
     </row>
-    <row r="16" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B16" s="22">
+    <row r="19" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B19" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C19" s="25" t="str">
         <f>IF(_cuben_day_hour!A12="","",_cuben_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D16" s="24" t="str">
+      <c r="D19" s="25" t="str">
         <f>IF(_cuben_day_hour!B12="","",_cuben_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E19" s="25" t="str">
         <f>IF(_cuben_day_hour!C12="","",_cuben_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F16" s="26" t="str">
+      <c r="F19" s="25" t="str">
         <f>IF(_cuben_day_hour!D12="","",_cuben_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G16" s="26" t="str">
+      <c r="G19" s="25" t="str">
         <f>IF(_cuben_day_hour!E12="","",_cuben_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H16" s="26" t="str">
+      <c r="H19" s="25" t="str">
         <f>IF(_cuben_day_hour!F12="","",_cuben_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="26" t="str">
+      <c r="I19" s="25" t="str">
         <f>IF(_cuben_day_hour!G12="","",_cuben_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J16" s="26" t="str">
+      <c r="J19" s="25" t="str">
         <f>IF(_cuben_day_hour!H12="","",_cuben_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K16" s="26" t="str">
+      <c r="K19" s="25" t="str">
         <f>IF(_cuben_day_hour!I12="","",_cuben_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L16" s="26" t="str">
+      <c r="L19" s="25" t="str">
         <f>IF(_cuben_day_hour!J12="","",_cuben_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M16" s="26" t="str">
+      <c r="M19" s="25" t="str">
         <f>IF(_cuben_day_hour!K12="","",_cuben_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N16" s="26" t="str">
+      <c r="N19" s="25" t="str">
         <f>IF(_cuben_day_hour!L12="","",_cuben_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O16" s="26" t="str">
+      <c r="O19" s="25" t="str">
         <f>IF(_cuben_day_hour!M12="","",_cuben_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P16" s="26" t="str">
+      <c r="P19" s="25" t="str">
         <f>IF(_cuben_day_hour!N12="","",_cuben_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q16" s="26" t="str">
+      <c r="Q19" s="25" t="str">
         <f>IF(_cuben_day_hour!O12="","",_cuben_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R16" s="26" t="str">
+      <c r="R19" s="25" t="str">
         <f>IF(_cuben_day_hour!P12="","",_cuben_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="26" t="str">
+      <c r="S19" s="25" t="str">
         <f>IF(_cuben_day_hour!Q12="","",_cuben_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T16" s="50"/>
-      <c r="U16" s="52"/>
     </row>
-    <row r="17" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B17" s="22">
+    <row r="20" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B20" s="24">
         <v>0.458333333333334</v>
       </c>
-      <c r="C17" s="23" t="str">
+      <c r="C20" s="25" t="str">
         <f>IF(_cuben_day_hour!A13="","",_cuben_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D17" s="24" t="str">
+      <c r="D20" s="25" t="str">
         <f>IF(_cuben_day_hour!B13="","",_cuben_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E17" s="25" t="str">
+      <c r="E20" s="25" t="str">
         <f>IF(_cuben_day_hour!C13="","",_cuben_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F17" s="26" t="str">
+      <c r="F20" s="25" t="str">
         <f>IF(_cuben_day_hour!D13="","",_cuben_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G20" s="25" t="str">
         <f>IF(_cuben_day_hour!E13="","",_cuben_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H17" s="26" t="str">
+      <c r="H20" s="25" t="str">
         <f>IF(_cuben_day_hour!F13="","",_cuben_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I20" s="25" t="str">
         <f>IF(_cuben_day_hour!G13="","",_cuben_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J17" s="26" t="str">
+      <c r="J20" s="25" t="str">
         <f>IF(_cuben_day_hour!H13="","",_cuben_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K17" s="26" t="str">
+      <c r="K20" s="25" t="str">
         <f>IF(_cuben_day_hour!I13="","",_cuben_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L17" s="26" t="str">
+      <c r="L20" s="25" t="str">
         <f>IF(_cuben_day_hour!J13="","",_cuben_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M17" s="26" t="str">
+      <c r="M20" s="25" t="str">
         <f>IF(_cuben_day_hour!K13="","",_cuben_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N17" s="26" t="str">
+      <c r="N20" s="25" t="str">
         <f>IF(_cuben_day_hour!L13="","",_cuben_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O17" s="26" t="str">
+      <c r="O20" s="25" t="str">
         <f>IF(_cuben_day_hour!M13="","",_cuben_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P17" s="26" t="str">
+      <c r="P20" s="25" t="str">
         <f>IF(_cuben_day_hour!N13="","",_cuben_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q17" s="26" t="str">
+      <c r="Q20" s="25" t="str">
         <f>IF(_cuben_day_hour!O13="","",_cuben_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R17" s="26" t="str">
+      <c r="R20" s="25" t="str">
         <f>IF(_cuben_day_hour!P13="","",_cuben_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="26" t="str">
+      <c r="S20" s="25" t="str">
         <f>IF(_cuben_day_hour!Q13="","",_cuben_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T17" s="50"/>
-      <c r="U17" s="52"/>
     </row>
-    <row r="18" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B18" s="22">
+    <row r="21" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B21" s="24">
         <v>0.5</v>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C21" s="25" t="str">
         <f>IF(_cuben_day_hour!A14="","",_cuben_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="24" t="str">
+      <c r="D21" s="25" t="str">
         <f>IF(_cuben_day_hour!B14="","",_cuben_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E21" s="25" t="str">
         <f>IF(_cuben_day_hour!C14="","",_cuben_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="26" t="str">
+      <c r="F21" s="25" t="str">
         <f>IF(_cuben_day_hour!D14="","",_cuben_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="26" t="str">
+      <c r="G21" s="25" t="str">
         <f>IF(_cuben_day_hour!E14="","",_cuben_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="26" t="str">
+      <c r="H21" s="25" t="str">
         <f>IF(_cuben_day_hour!F14="","",_cuben_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="26" t="str">
+      <c r="I21" s="25" t="str">
         <f>IF(_cuben_day_hour!G14="","",_cuben_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="26" t="str">
+      <c r="J21" s="25" t="str">
         <f>IF(_cuben_day_hour!H14="","",_cuben_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="26" t="str">
+      <c r="K21" s="25" t="str">
         <f>IF(_cuben_day_hour!I14="","",_cuben_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="26" t="str">
+      <c r="L21" s="25" t="str">
         <f>IF(_cuben_day_hour!J14="","",_cuben_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="26" t="str">
+      <c r="M21" s="25" t="str">
         <f>IF(_cuben_day_hour!K14="","",_cuben_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="26" t="str">
+      <c r="N21" s="25" t="str">
         <f>IF(_cuben_day_hour!L14="","",_cuben_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="26" t="str">
+      <c r="O21" s="25" t="str">
         <f>IF(_cuben_day_hour!M14="","",_cuben_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="26" t="str">
+      <c r="P21" s="25" t="str">
         <f>IF(_cuben_day_hour!N14="","",_cuben_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="26" t="str">
+      <c r="Q21" s="25" t="str">
         <f>IF(_cuben_day_hour!O14="","",_cuben_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="26" t="str">
+      <c r="R21" s="25" t="str">
         <f>IF(_cuben_day_hour!P14="","",_cuben_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="26" t="str">
+      <c r="S21" s="25" t="str">
         <f>IF(_cuben_day_hour!Q14="","",_cuben_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T18" s="50"/>
-      <c r="U18" s="52"/>
     </row>
-    <row r="19" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B19" s="22">
+    <row r="22" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B22" s="24">
         <v>0.541666666666667</v>
       </c>
-      <c r="C19" s="23" t="str">
+      <c r="C22" s="25" t="str">
         <f>IF(_cuben_day_hour!A15="","",_cuben_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="24" t="str">
+      <c r="D22" s="25" t="str">
         <f>IF(_cuben_day_hour!B15="","",_cuben_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E22" s="25" t="str">
         <f>IF(_cuben_day_hour!C15="","",_cuben_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="26" t="str">
+      <c r="F22" s="25" t="str">
         <f>IF(_cuben_day_hour!D15="","",_cuben_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="26" t="str">
+      <c r="G22" s="25" t="str">
         <f>IF(_cuben_day_hour!E15="","",_cuben_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="26" t="str">
+      <c r="H22" s="25" t="str">
         <f>IF(_cuben_day_hour!F15="","",_cuben_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="26" t="str">
+      <c r="I22" s="25" t="str">
         <f>IF(_cuben_day_hour!G15="","",_cuben_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="26" t="str">
+      <c r="J22" s="25" t="str">
         <f>IF(_cuben_day_hour!H15="","",_cuben_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="26" t="str">
+      <c r="K22" s="25" t="str">
         <f>IF(_cuben_day_hour!I15="","",_cuben_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="26" t="str">
+      <c r="L22" s="25" t="str">
         <f>IF(_cuben_day_hour!J15="","",_cuben_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="26" t="str">
+      <c r="M22" s="25" t="str">
         <f>IF(_cuben_day_hour!K15="","",_cuben_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="26" t="str">
+      <c r="N22" s="25" t="str">
         <f>IF(_cuben_day_hour!L15="","",_cuben_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="26" t="str">
+      <c r="O22" s="25" t="str">
         <f>IF(_cuben_day_hour!M15="","",_cuben_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="26" t="str">
+      <c r="P22" s="25" t="str">
         <f>IF(_cuben_day_hour!N15="","",_cuben_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="26" t="str">
+      <c r="Q22" s="25" t="str">
         <f>IF(_cuben_day_hour!O15="","",_cuben_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="26" t="str">
+      <c r="R22" s="25" t="str">
         <f>IF(_cuben_day_hour!P15="","",_cuben_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="26" t="str">
+      <c r="S22" s="25" t="str">
         <f>IF(_cuben_day_hour!Q15="","",_cuben_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T19" s="50"/>
-      <c r="U19" s="52"/>
     </row>
-    <row r="20" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B20" s="22">
+    <row r="23" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B23" s="24">
         <v>0.583333333333334</v>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C23" s="25" t="str">
         <f>IF(_cuben_day_hour!A16="","",_cuben_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="24" t="str">
+      <c r="D23" s="25" t="str">
         <f>IF(_cuben_day_hour!B16="","",_cuben_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E23" s="25" t="str">
         <f>IF(_cuben_day_hour!C16="","",_cuben_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="26" t="str">
+      <c r="F23" s="25" t="str">
         <f>IF(_cuben_day_hour!D16="","",_cuben_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="26" t="str">
+      <c r="G23" s="25" t="str">
         <f>IF(_cuben_day_hour!E16="","",_cuben_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="26" t="str">
+      <c r="H23" s="25" t="str">
         <f>IF(_cuben_day_hour!F16="","",_cuben_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="26" t="str">
+      <c r="I23" s="25" t="str">
         <f>IF(_cuben_day_hour!G16="","",_cuben_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="26" t="str">
+      <c r="J23" s="25" t="str">
         <f>IF(_cuben_day_hour!H16="","",_cuben_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="26" t="str">
+      <c r="K23" s="25" t="str">
         <f>IF(_cuben_day_hour!I16="","",_cuben_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="26" t="str">
+      <c r="L23" s="25" t="str">
         <f>IF(_cuben_day_hour!J16="","",_cuben_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="26" t="str">
+      <c r="M23" s="25" t="str">
         <f>IF(_cuben_day_hour!K16="","",_cuben_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="26" t="str">
+      <c r="N23" s="25" t="str">
         <f>IF(_cuben_day_hour!L16="","",_cuben_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="26" t="str">
+      <c r="O23" s="25" t="str">
         <f>IF(_cuben_day_hour!M16="","",_cuben_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="26" t="str">
+      <c r="P23" s="25" t="str">
         <f>IF(_cuben_day_hour!N16="","",_cuben_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="26" t="str">
+      <c r="Q23" s="25" t="str">
         <f>IF(_cuben_day_hour!O16="","",_cuben_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="26" t="str">
+      <c r="R23" s="25" t="str">
         <f>IF(_cuben_day_hour!P16="","",_cuben_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="26" t="str">
+      <c r="S23" s="25" t="str">
         <f>IF(_cuben_day_hour!Q16="","",_cuben_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T20" s="50"/>
-      <c r="U20" s="52"/>
     </row>
-    <row r="21" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B21" s="27">
+    <row r="24" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B24" s="26">
         <v>0.625</v>
       </c>
-      <c r="C21" s="28" t="str">
+      <c r="C24" s="27" t="str">
         <f>IF(_cuben_day_hour!A17="","",_cuben_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="29" t="str">
+      <c r="D24" s="27" t="str">
         <f>IF(_cuben_day_hour!B17="","",_cuben_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="30" t="str">
+      <c r="E24" s="27" t="str">
         <f>IF(_cuben_day_hour!C17="","",_cuben_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="31" t="str">
+      <c r="F24" s="27" t="str">
         <f>IF(_cuben_day_hour!D17="","",_cuben_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="31" t="str">
+      <c r="G24" s="27" t="str">
         <f>IF(_cuben_day_hour!E17="","",_cuben_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="31" t="str">
+      <c r="H24" s="27" t="str">
         <f>IF(_cuben_day_hour!F17="","",_cuben_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="31" t="str">
+      <c r="I24" s="27" t="str">
         <f>IF(_cuben_day_hour!G17="","",_cuben_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="31" t="str">
+      <c r="J24" s="27" t="str">
         <f>IF(_cuben_day_hour!H17="","",_cuben_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="31" t="str">
+      <c r="K24" s="27" t="str">
         <f>IF(_cuben_day_hour!I17="","",_cuben_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="31" t="str">
+      <c r="L24" s="27" t="str">
         <f>IF(_cuben_day_hour!J17="","",_cuben_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="31" t="str">
+      <c r="M24" s="27" t="str">
         <f>IF(_cuben_day_hour!K17="","",_cuben_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="31" t="str">
+      <c r="N24" s="27" t="str">
         <f>IF(_cuben_day_hour!L17="","",_cuben_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="31" t="str">
+      <c r="O24" s="27" t="str">
         <f>IF(_cuben_day_hour!M17="","",_cuben_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="31" t="str">
+      <c r="P24" s="27" t="str">
         <f>IF(_cuben_day_hour!N17="","",_cuben_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="31" t="str">
+      <c r="Q24" s="27" t="str">
         <f>IF(_cuben_day_hour!O17="","",_cuben_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="31" t="str">
+      <c r="R24" s="27" t="str">
         <f>IF(_cuben_day_hour!P17="","",_cuben_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="31" t="str">
+      <c r="S24" s="27" t="str">
         <f>IF(_cuben_day_hour!Q17="","",_cuben_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54"/>
     </row>
-    <row r="22" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B22" s="17">
+    <row r="25" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B25" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="C22" s="18" t="str">
+      <c r="C25" s="23" t="str">
         <f>IF(_cuben_day_hour!A18="","",_cuben_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="19" t="str">
+      <c r="D25" s="23" t="str">
         <f>IF(_cuben_day_hour!B18="","",_cuben_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="20" t="str">
+      <c r="E25" s="23" t="str">
         <f>IF(_cuben_day_hour!C18="","",_cuben_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="21" t="str">
+      <c r="F25" s="23" t="str">
         <f>IF(_cuben_day_hour!D18="","",_cuben_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="G25" s="23" t="str">
         <f>IF(_cuben_day_hour!E18="","",_cuben_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="H25" s="23" t="str">
         <f>IF(_cuben_day_hour!F18="","",_cuben_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="21" t="str">
+      <c r="I25" s="23" t="str">
         <f>IF(_cuben_day_hour!G18="","",_cuben_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J25" s="23" t="str">
         <f>IF(_cuben_day_hour!H18="","",_cuben_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="21" t="str">
+      <c r="K25" s="23" t="str">
         <f>IF(_cuben_day_hour!I18="","",_cuben_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="21" t="str">
+      <c r="L25" s="23" t="str">
         <f>IF(_cuben_day_hour!J18="","",_cuben_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="21" t="str">
+      <c r="M25" s="23" t="str">
         <f>IF(_cuben_day_hour!K18="","",_cuben_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="21" t="str">
+      <c r="N25" s="23" t="str">
         <f>IF(_cuben_day_hour!L18="","",_cuben_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="21" t="str">
+      <c r="O25" s="23" t="str">
         <f>IF(_cuben_day_hour!M18="","",_cuben_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="21" t="str">
+      <c r="P25" s="23" t="str">
         <f>IF(_cuben_day_hour!N18="","",_cuben_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="21" t="str">
+      <c r="Q25" s="23" t="str">
         <f>IF(_cuben_day_hour!O18="","",_cuben_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="21" t="str">
+      <c r="R25" s="23" t="str">
         <f>IF(_cuben_day_hour!P18="","",_cuben_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="21" t="str">
+      <c r="S25" s="23" t="str">
         <f>IF(_cuben_day_hour!Q18="","",_cuben_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T22" s="55"/>
-      <c r="U22" s="56"/>
     </row>
-    <row r="23" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B23" s="22">
+    <row r="26" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B26" s="24">
         <v>0.708333333333334</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C26" s="25" t="str">
         <f>IF(_cuben_day_hour!A19="","",_cuben_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="24" t="str">
+      <c r="D26" s="25" t="str">
         <f>IF(_cuben_day_hour!B19="","",_cuben_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="25" t="str">
+      <c r="E26" s="25" t="str">
         <f>IF(_cuben_day_hour!C19="","",_cuben_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="26" t="str">
+      <c r="F26" s="25" t="str">
         <f>IF(_cuben_day_hour!D19="","",_cuben_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="26" t="str">
+      <c r="G26" s="25" t="str">
         <f>IF(_cuben_day_hour!E19="","",_cuben_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="26" t="str">
+      <c r="H26" s="25" t="str">
         <f>IF(_cuben_day_hour!F19="","",_cuben_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="26" t="str">
+      <c r="I26" s="25" t="str">
         <f>IF(_cuben_day_hour!G19="","",_cuben_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="26" t="str">
+      <c r="J26" s="25" t="str">
         <f>IF(_cuben_day_hour!H19="","",_cuben_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="26" t="str">
+      <c r="K26" s="25" t="str">
         <f>IF(_cuben_day_hour!I19="","",_cuben_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="26" t="str">
+      <c r="L26" s="25" t="str">
         <f>IF(_cuben_day_hour!J19="","",_cuben_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="26" t="str">
+      <c r="M26" s="25" t="str">
         <f>IF(_cuben_day_hour!K19="","",_cuben_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="26" t="str">
+      <c r="N26" s="25" t="str">
         <f>IF(_cuben_day_hour!L19="","",_cuben_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="26" t="str">
+      <c r="O26" s="25" t="str">
         <f>IF(_cuben_day_hour!M19="","",_cuben_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="26" t="str">
+      <c r="P26" s="25" t="str">
         <f>IF(_cuben_day_hour!N19="","",_cuben_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="26" t="str">
+      <c r="Q26" s="25" t="str">
         <f>IF(_cuben_day_hour!O19="","",_cuben_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="26" t="str">
+      <c r="R26" s="25" t="str">
         <f>IF(_cuben_day_hour!P19="","",_cuben_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="26" t="str">
+      <c r="S26" s="25" t="str">
         <f>IF(_cuben_day_hour!Q19="","",_cuben_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T23" s="50"/>
-      <c r="U23" s="52"/>
     </row>
-    <row r="24" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B24" s="22">
+    <row r="27" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B27" s="24">
         <v>0.75</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C27" s="25" t="str">
         <f>IF(_cuben_day_hour!A20="","",_cuben_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="24" t="str">
+      <c r="D27" s="25" t="str">
         <f>IF(_cuben_day_hour!B20="","",_cuben_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="25" t="str">
+      <c r="E27" s="25" t="str">
         <f>IF(_cuben_day_hour!C20="","",_cuben_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="26" t="str">
+      <c r="F27" s="25" t="str">
         <f>IF(_cuben_day_hour!D20="","",_cuben_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="26" t="str">
+      <c r="G27" s="25" t="str">
         <f>IF(_cuben_day_hour!E20="","",_cuben_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="26" t="str">
+      <c r="H27" s="25" t="str">
         <f>IF(_cuben_day_hour!F20="","",_cuben_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="26" t="str">
+      <c r="I27" s="25" t="str">
         <f>IF(_cuben_day_hour!G20="","",_cuben_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="26" t="str">
+      <c r="J27" s="25" t="str">
         <f>IF(_cuben_day_hour!H20="","",_cuben_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="26" t="str">
+      <c r="K27" s="25" t="str">
         <f>IF(_cuben_day_hour!I20="","",_cuben_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="26" t="str">
+      <c r="L27" s="25" t="str">
         <f>IF(_cuben_day_hour!J20="","",_cuben_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="26" t="str">
+      <c r="M27" s="25" t="str">
         <f>IF(_cuben_day_hour!K20="","",_cuben_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="26" t="str">
+      <c r="N27" s="25" t="str">
         <f>IF(_cuben_day_hour!L20="","",_cuben_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="26" t="str">
+      <c r="O27" s="25" t="str">
         <f>IF(_cuben_day_hour!M20="","",_cuben_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="26" t="str">
+      <c r="P27" s="25" t="str">
         <f>IF(_cuben_day_hour!N20="","",_cuben_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="26" t="str">
+      <c r="Q27" s="25" t="str">
         <f>IF(_cuben_day_hour!O20="","",_cuben_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="26" t="str">
+      <c r="R27" s="25" t="str">
         <f>IF(_cuben_day_hour!P20="","",_cuben_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="26" t="str">
+      <c r="S27" s="25" t="str">
         <f>IF(_cuben_day_hour!Q20="","",_cuben_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T24" s="50"/>
-      <c r="U24" s="52"/>
     </row>
-    <row r="25" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B25" s="22">
+    <row r="28" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B28" s="24">
         <v>0.791666666666667</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C28" s="25" t="str">
         <f>IF(_cuben_day_hour!A21="","",_cuben_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="24" t="str">
+      <c r="D28" s="25" t="str">
         <f>IF(_cuben_day_hour!B21="","",_cuben_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="25" t="str">
+      <c r="E28" s="25" t="str">
         <f>IF(_cuben_day_hour!C21="","",_cuben_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="26" t="str">
+      <c r="F28" s="25" t="str">
         <f>IF(_cuben_day_hour!D21="","",_cuben_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="26" t="str">
+      <c r="G28" s="25" t="str">
         <f>IF(_cuben_day_hour!E21="","",_cuben_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="26" t="str">
+      <c r="H28" s="25" t="str">
         <f>IF(_cuben_day_hour!F21="","",_cuben_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="26" t="str">
+      <c r="I28" s="25" t="str">
         <f>IF(_cuben_day_hour!G21="","",_cuben_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="26" t="str">
+      <c r="J28" s="25" t="str">
         <f>IF(_cuben_day_hour!H21="","",_cuben_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="26" t="str">
+      <c r="K28" s="25" t="str">
         <f>IF(_cuben_day_hour!I21="","",_cuben_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="26" t="str">
+      <c r="L28" s="25" t="str">
         <f>IF(_cuben_day_hour!J21="","",_cuben_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="26" t="str">
+      <c r="M28" s="25" t="str">
         <f>IF(_cuben_day_hour!K21="","",_cuben_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="26" t="str">
+      <c r="N28" s="25" t="str">
         <f>IF(_cuben_day_hour!L21="","",_cuben_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="26" t="str">
+      <c r="O28" s="25" t="str">
         <f>IF(_cuben_day_hour!M21="","",_cuben_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="26" t="str">
+      <c r="P28" s="25" t="str">
         <f>IF(_cuben_day_hour!N21="","",_cuben_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="26" t="str">
+      <c r="Q28" s="25" t="str">
         <f>IF(_cuben_day_hour!O21="","",_cuben_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="26" t="str">
+      <c r="R28" s="25" t="str">
         <f>IF(_cuben_day_hour!P21="","",_cuben_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="26" t="str">
+      <c r="S28" s="25" t="str">
         <f>IF(_cuben_day_hour!Q21="","",_cuben_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T25" s="50"/>
-      <c r="U25" s="52"/>
     </row>
-    <row r="26" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B26" s="22">
+    <row r="29" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B29" s="24">
         <v>0.833333333333334</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C29" s="25" t="str">
         <f>IF(_cuben_day_hour!A22="","",_cuben_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="24" t="str">
+      <c r="D29" s="25" t="str">
         <f>IF(_cuben_day_hour!B22="","",_cuben_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="25" t="str">
+      <c r="E29" s="25" t="str">
         <f>IF(_cuben_day_hour!C22="","",_cuben_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="26" t="str">
+      <c r="F29" s="25" t="str">
         <f>IF(_cuben_day_hour!D22="","",_cuben_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="26" t="str">
+      <c r="G29" s="25" t="str">
         <f>IF(_cuben_day_hour!E22="","",_cuben_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="26" t="str">
+      <c r="H29" s="25" t="str">
         <f>IF(_cuben_day_hour!F22="","",_cuben_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="26" t="str">
+      <c r="I29" s="25" t="str">
         <f>IF(_cuben_day_hour!G22="","",_cuben_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="26" t="str">
+      <c r="J29" s="25" t="str">
         <f>IF(_cuben_day_hour!H22="","",_cuben_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="26" t="str">
+      <c r="K29" s="25" t="str">
         <f>IF(_cuben_day_hour!I22="","",_cuben_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="26" t="str">
+      <c r="L29" s="25" t="str">
         <f>IF(_cuben_day_hour!J22="","",_cuben_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="26" t="str">
+      <c r="M29" s="25" t="str">
         <f>IF(_cuben_day_hour!K22="","",_cuben_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="26" t="str">
+      <c r="N29" s="25" t="str">
         <f>IF(_cuben_day_hour!L22="","",_cuben_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="26" t="str">
+      <c r="O29" s="25" t="str">
         <f>IF(_cuben_day_hour!M22="","",_cuben_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="26" t="str">
+      <c r="P29" s="25" t="str">
         <f>IF(_cuben_day_hour!N22="","",_cuben_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="26" t="str">
+      <c r="Q29" s="25" t="str">
         <f>IF(_cuben_day_hour!O22="","",_cuben_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="26" t="str">
+      <c r="R29" s="25" t="str">
         <f>IF(_cuben_day_hour!P22="","",_cuben_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="26" t="str">
+      <c r="S29" s="25" t="str">
         <f>IF(_cuben_day_hour!Q22="","",_cuben_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T26" s="50"/>
-      <c r="U26" s="52"/>
     </row>
-    <row r="27" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B27" s="22">
+    <row r="30" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B30" s="24">
         <v>0.875</v>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C30" s="25" t="str">
         <f>IF(_cuben_day_hour!A23="","",_cuben_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="24" t="str">
+      <c r="D30" s="25" t="str">
         <f>IF(_cuben_day_hour!B23="","",_cuben_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="25" t="str">
+      <c r="E30" s="25" t="str">
         <f>IF(_cuben_day_hour!C23="","",_cuben_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="26" t="str">
+      <c r="F30" s="25" t="str">
         <f>IF(_cuben_day_hour!D23="","",_cuben_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="26" t="str">
+      <c r="G30" s="25" t="str">
         <f>IF(_cuben_day_hour!E23="","",_cuben_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="26" t="str">
+      <c r="H30" s="25" t="str">
         <f>IF(_cuben_day_hour!F23="","",_cuben_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="26" t="str">
+      <c r="I30" s="25" t="str">
         <f>IF(_cuben_day_hour!G23="","",_cuben_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="26" t="str">
+      <c r="J30" s="25" t="str">
         <f>IF(_cuben_day_hour!H23="","",_cuben_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="26" t="str">
+      <c r="K30" s="25" t="str">
         <f>IF(_cuben_day_hour!I23="","",_cuben_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="26" t="str">
+      <c r="L30" s="25" t="str">
         <f>IF(_cuben_day_hour!J23="","",_cuben_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="26" t="str">
+      <c r="M30" s="25" t="str">
         <f>IF(_cuben_day_hour!K23="","",_cuben_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="26" t="str">
+      <c r="N30" s="25" t="str">
         <f>IF(_cuben_day_hour!L23="","",_cuben_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="26" t="str">
+      <c r="O30" s="25" t="str">
         <f>IF(_cuben_day_hour!M23="","",_cuben_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="26" t="str">
+      <c r="P30" s="25" t="str">
         <f>IF(_cuben_day_hour!N23="","",_cuben_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="26" t="str">
+      <c r="Q30" s="25" t="str">
         <f>IF(_cuben_day_hour!O23="","",_cuben_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="26" t="str">
+      <c r="R30" s="25" t="str">
         <f>IF(_cuben_day_hour!P23="","",_cuben_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="26" t="str">
+      <c r="S30" s="25" t="str">
         <f>IF(_cuben_day_hour!Q23="","",_cuben_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T27" s="50"/>
-      <c r="U27" s="52"/>
     </row>
-    <row r="28" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B28" s="22">
+    <row r="31" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B31" s="24">
         <v>0.916666666666667</v>
       </c>
-      <c r="C28" s="23" t="str">
+      <c r="C31" s="25" t="str">
         <f>IF(_cuben_day_hour!A24="","",_cuben_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="24" t="str">
+      <c r="D31" s="25" t="str">
         <f>IF(_cuben_day_hour!B24="","",_cuben_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="25" t="str">
+      <c r="E31" s="25" t="str">
         <f>IF(_cuben_day_hour!C24="","",_cuben_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="26" t="str">
+      <c r="F31" s="25" t="str">
         <f>IF(_cuben_day_hour!D24="","",_cuben_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="26" t="str">
+      <c r="G31" s="25" t="str">
         <f>IF(_cuben_day_hour!E24="","",_cuben_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="26" t="str">
+      <c r="H31" s="25" t="str">
         <f>IF(_cuben_day_hour!F24="","",_cuben_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="26" t="str">
+      <c r="I31" s="25" t="str">
         <f>IF(_cuben_day_hour!G24="","",_cuben_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="26" t="str">
+      <c r="J31" s="25" t="str">
         <f>IF(_cuben_day_hour!H24="","",_cuben_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="26" t="str">
+      <c r="K31" s="25" t="str">
         <f>IF(_cuben_day_hour!I24="","",_cuben_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="26" t="str">
+      <c r="L31" s="25" t="str">
         <f>IF(_cuben_day_hour!J24="","",_cuben_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="26" t="str">
+      <c r="M31" s="25" t="str">
         <f>IF(_cuben_day_hour!K24="","",_cuben_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="26" t="str">
+      <c r="N31" s="25" t="str">
         <f>IF(_cuben_day_hour!L24="","",_cuben_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="26" t="str">
+      <c r="O31" s="25" t="str">
         <f>IF(_cuben_day_hour!M24="","",_cuben_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="26" t="str">
+      <c r="P31" s="25" t="str">
         <f>IF(_cuben_day_hour!N24="","",_cuben_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="26" t="str">
+      <c r="Q31" s="25" t="str">
         <f>IF(_cuben_day_hour!O24="","",_cuben_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="26" t="str">
+      <c r="R31" s="25" t="str">
         <f>IF(_cuben_day_hour!P24="","",_cuben_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="26" t="str">
+      <c r="S31" s="25" t="str">
         <f>IF(_cuben_day_hour!Q24="","",_cuben_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T28" s="50"/>
-      <c r="U28" s="52"/>
     </row>
-    <row r="29" ht="17.55" customHeight="1" spans="2:21">
-      <c r="B29" s="32">
+    <row r="32" ht="17.55" customHeight="1" spans="2:19">
+      <c r="B32" s="28">
         <v>0.958333333333334</v>
       </c>
-      <c r="C29" s="33" t="str">
+      <c r="C32" s="29" t="str">
         <f>IF(_cuben_day_hour!A25="","",_cuben_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="34" t="str">
+      <c r="D32" s="29" t="str">
         <f>IF(_cuben_day_hour!B25="","",_cuben_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="35" t="str">
+      <c r="E32" s="29" t="str">
         <f>IF(_cuben_day_hour!C25="","",_cuben_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="36" t="str">
+      <c r="F32" s="29" t="str">
         <f>IF(_cuben_day_hour!D25="","",_cuben_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="36" t="str">
+      <c r="G32" s="29" t="str">
         <f>IF(_cuben_day_hour!E25="","",_cuben_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="36" t="str">
+      <c r="H32" s="29" t="str">
         <f>IF(_cuben_day_hour!F25="","",_cuben_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="36" t="str">
+      <c r="I32" s="29" t="str">
         <f>IF(_cuben_day_hour!G25="","",_cuben_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="36" t="str">
+      <c r="J32" s="29" t="str">
         <f>IF(_cuben_day_hour!H25="","",_cuben_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="36" t="str">
+      <c r="K32" s="29" t="str">
         <f>IF(_cuben_day_hour!I25="","",_cuben_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="36" t="str">
+      <c r="L32" s="29" t="str">
         <f>IF(_cuben_day_hour!J25="","",_cuben_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="36" t="str">
+      <c r="M32" s="29" t="str">
         <f>IF(_cuben_day_hour!K25="","",_cuben_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="36" t="str">
+      <c r="N32" s="29" t="str">
         <f>IF(_cuben_day_hour!L25="","",_cuben_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="36" t="str">
+      <c r="O32" s="29" t="str">
         <f>IF(_cuben_day_hour!M25="","",_cuben_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="36" t="str">
+      <c r="P32" s="29" t="str">
         <f>IF(_cuben_day_hour!N25="","",_cuben_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="36" t="str">
+      <c r="Q32" s="29" t="str">
         <f>IF(_cuben_day_hour!O25="","",_cuben_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="36" t="str">
+      <c r="R32" s="29" t="str">
         <f>IF(_cuben_day_hour!P25="","",_cuben_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="36" t="str">
+      <c r="S32" s="29" t="str">
         <f>IF(_cuben_day_hour!Q25="","",_cuben_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T29" s="57"/>
-      <c r="U29" s="58"/>
     </row>
-    <row r="30" ht="151.5" customHeight="1" spans="2:21">
-      <c r="B30" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="59"/>
+    <row r="33" ht="151.5" customHeight="1" spans="2:19">
+      <c r="B33" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="33"/>
     </row>
-    <row r="32" spans="9:13">
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-    </row>
-    <row r="36" spans="20:20">
-      <c r="T36" s="60"/>
+    <row r="35" spans="9:13">
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="S2:U2"/>
+  <mergeCells count="23">
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="O33:S33"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -4952,33 +4530,145 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="T3:U4"/>
   </mergeCells>
+  <conditionalFormatting sqref="C9:C32">
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="greaterThan">
+      <formula>C$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="lessThan">
+      <formula>C$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D32">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="greaterThan">
+      <formula>D$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="lessThan">
+      <formula>D$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E32">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="greaterThan">
+      <formula>E$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="lessThan">
+      <formula>E$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F32">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
+      <formula>F$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="lessThan">
+      <formula>F$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G32">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="greaterThan">
+      <formula>G$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="lessThan">
+      <formula>G$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H32">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="lessThan">
+      <formula>H$8+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="greaterThan">
+      <formula>H$7+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I32">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="lessThan">
+      <formula>I$8+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="greaterThan">
+      <formula>I$7+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J32">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
+      <formula>J$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="lessThan">
+      <formula>J$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:K32">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
+      <formula>K$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThan">
+      <formula>K$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L32">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
+      <formula>L$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="lessThan">
+      <formula>L$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:M32">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
+      <formula>M$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
+      <formula>M$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N32">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+      <formula>N$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
+      <formula>N$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:O32">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
+      <formula>O$8+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
+      <formula>O$7+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P32">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+      <formula>P$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+      <formula>P$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:Q32">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>Q$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>Q$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:R32">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>R$8+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>R$7+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:S32">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>S$7+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>S$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4987,13 +4677,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="48" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -5027,7 +4717,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>33</v>
@@ -5036,7 +4726,7 @@
         <v>34</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>35</v>
@@ -5048,6 +4738,7 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" ht="17" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -5060,7 +4751,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B23"/>
+      <selection activeCell="E12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5083,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>45</v>
